--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1439100</v>
+      </c>
+      <c r="E8" s="3">
         <v>3384700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3393300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2271500</v>
       </c>
-      <c r="G8" s="3">
-        <v>3213000</v>
-      </c>
       <c r="H8" s="3">
+        <v>1682700</v>
+      </c>
+      <c r="I8" s="3">
         <v>3227700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3219400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2137100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3045400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3361100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3508800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2359600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2500300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2743500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>539800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1500300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1596300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1034700</v>
       </c>
-      <c r="G9" s="3">
-        <v>1561200</v>
-      </c>
       <c r="H9" s="3">
+        <v>2202100</v>
+      </c>
+      <c r="I9" s="3">
         <v>3337700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3494100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2385600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1504000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1617900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1750800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1187400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1243900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1362400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>899300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1884400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1797000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1236800</v>
       </c>
-      <c r="G10" s="3">
-        <v>1651800</v>
-      </c>
       <c r="H10" s="3">
+        <v>-519400</v>
+      </c>
+      <c r="I10" s="3">
         <v>-110000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-274700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-248500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1541400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1743200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1758000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1172200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1256400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1381100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,55 +1006,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>405100</v>
+      </c>
+      <c r="E14" s="3">
         <v>3900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>130900</v>
       </c>
-      <c r="H14" s="3">
-        <v>77100</v>
-      </c>
       <c r="I14" s="3">
-        <v>47900</v>
+        <v>76800</v>
       </c>
       <c r="J14" s="3">
+        <v>57800</v>
+      </c>
+      <c r="K14" s="3">
         <v>10700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14900</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>104700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>79600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1862200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2805900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2814200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2138200</v>
       </c>
-      <c r="G17" s="3">
-        <v>3018600</v>
-      </c>
       <c r="H17" s="3">
-        <v>2711700</v>
+        <v>1671400</v>
       </c>
       <c r="I17" s="3">
-        <v>2696800</v>
+        <v>2711400</v>
       </c>
       <c r="J17" s="3">
+        <v>2706700</v>
+      </c>
+      <c r="K17" s="3">
         <v>2024000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2734100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2801500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3024900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2191600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2210700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2489800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-423100</v>
+      </c>
+      <c r="E18" s="3">
         <v>578800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>579100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>133300</v>
       </c>
-      <c r="G18" s="3">
-        <v>194400</v>
-      </c>
       <c r="H18" s="3">
-        <v>516000</v>
+        <v>11300</v>
       </c>
       <c r="I18" s="3">
-        <v>522600</v>
+        <v>516300</v>
       </c>
       <c r="J18" s="3">
+        <v>512700</v>
+      </c>
+      <c r="K18" s="3">
         <v>113100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>311300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>559600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>483900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>168000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>289600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>253700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-16600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12700</v>
       </c>
-      <c r="G20" s="3">
-        <v>5300</v>
-      </c>
       <c r="H20" s="3">
-        <v>6900</v>
+        <v>1500</v>
       </c>
       <c r="I20" s="3">
-        <v>-8100</v>
+        <v>6600</v>
       </c>
       <c r="J20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-17200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-407900</v>
+      </c>
+      <c r="E21" s="3">
         <v>445400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>744200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>305200</v>
       </c>
-      <c r="G21" s="3">
-        <v>284400</v>
-      </c>
       <c r="H21" s="3">
-        <v>610000</v>
+        <v>121800</v>
       </c>
       <c r="I21" s="3">
+        <v>585700</v>
+      </c>
+      <c r="J21" s="3">
         <v>590900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>148700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>390100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>648300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>563900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>235400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>359500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>332900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E22" s="3">
         <v>22300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>20800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>22100</v>
       </c>
-      <c r="G22" s="3">
-        <v>24000</v>
-      </c>
       <c r="H22" s="3">
-        <v>28300</v>
+        <v>24100</v>
       </c>
       <c r="I22" s="3">
         <v>28300</v>
       </c>
       <c r="J22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K22" s="3">
         <v>27000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>24400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>27000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>27100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>23700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>24300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-497900</v>
+      </c>
+      <c r="E23" s="3">
         <v>539800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>561400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>123900</v>
       </c>
-      <c r="G23" s="3">
-        <v>175700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="I23" s="3">
         <v>494600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>486200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>68800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>294100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>538400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>461100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>145800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>269400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>232500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>165500</v>
+      </c>
+      <c r="E24" s="3">
         <v>87100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-87600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26600</v>
       </c>
-      <c r="G24" s="3">
-        <v>33000</v>
-      </c>
       <c r="H24" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I24" s="3">
         <v>75100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>54300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>68000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>30900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>17300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-663400</v>
+      </c>
+      <c r="E26" s="3">
         <v>452700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>649000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>97200</v>
       </c>
-      <c r="G26" s="3">
-        <v>142700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I26" s="3">
         <v>419500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>431900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>58500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>256100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>470400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>386800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>114900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>213300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>215200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-663400</v>
+      </c>
+      <c r="E27" s="3">
         <v>452700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>649000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>97200</v>
       </c>
-      <c r="G27" s="3">
-        <v>142700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I27" s="3">
         <v>419500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>431900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>58500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>256100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>470400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>386800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>114900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>213300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>215200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,55 +1693,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E29" s="3">
         <v>12300</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-48000</v>
       </c>
-      <c r="G29" s="3">
-        <v>-13900</v>
-      </c>
       <c r="H29" s="3">
-        <v>98400</v>
+        <v>131100</v>
       </c>
       <c r="I29" s="3">
+        <v>44000</v>
+      </c>
+      <c r="J29" s="3">
         <v>75200</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>101900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-560700</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-5000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-4100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>49100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E32" s="3">
         <v>16600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12700</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5300</v>
-      </c>
       <c r="H32" s="3">
-        <v>-6900</v>
+        <v>-1500</v>
       </c>
       <c r="I32" s="3">
-        <v>8100</v>
+        <v>-6600</v>
       </c>
       <c r="J32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K32" s="3">
         <v>17200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-483800</v>
+      </c>
+      <c r="E33" s="3">
         <v>465000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>649000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>49200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>128800</v>
       </c>
-      <c r="H33" s="3">
-        <v>517900</v>
-      </c>
       <c r="I33" s="3">
+        <v>463500</v>
+      </c>
+      <c r="J33" s="3">
         <v>507100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>160400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>252800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-90300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>386100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>109900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>209200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>264300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-483800</v>
+      </c>
+      <c r="E35" s="3">
         <v>465000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>649000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>49200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>128800</v>
       </c>
-      <c r="H35" s="3">
-        <v>517900</v>
-      </c>
       <c r="I35" s="3">
+        <v>463500</v>
+      </c>
+      <c r="J35" s="3">
         <v>507100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>160400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>252800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-90300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>386100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>109900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>209200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>264300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1369000</v>
+      </c>
+      <c r="E41" s="3">
         <v>584000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>507600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>606100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>445100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>535300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>352800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>467900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>680800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>563500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1546100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>672500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>603300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1227900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1309200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1643500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1978600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1307800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1468400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1777800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2199400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1431500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1408600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1430000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1851400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1155700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1241500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1148800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1293900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1565000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1890700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1665100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1432700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1866100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2247900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1993800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1861400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1706600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1909600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1713000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1593400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1424600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1054800</v>
+      </c>
+      <c r="E45" s="3">
         <v>363200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>398300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>411800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1327300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>432900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>617800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>436900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>732500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>677700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>320300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>356500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>654000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>491900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5027000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4155700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4775200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3990900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4673500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4612100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5418000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4330100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4683300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4377800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5627400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3897700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4092200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4293100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2227900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2207400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2135500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2146200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>915200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1041600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1035700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1018200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1011600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1014600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>921200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>919000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>897400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1822000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3010600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3487800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3449200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3525100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3765400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3812100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3846900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4000400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3813300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4049900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3579400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3631700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4924300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5003000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>867800</v>
+      </c>
+      <c r="E52" s="3">
         <v>963400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>910500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>739800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1254500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>818500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>829900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>843000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>803000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>783700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>746900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>725400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1146500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1461600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11133300</v>
+      </c>
+      <c r="E54" s="3">
         <v>10814300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11270400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10402000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10356800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10284300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11130400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10191800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10311300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9958500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10874900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9173700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9246300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9739300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E57" s="3">
         <v>457000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>550700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>588400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>580900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>645700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>732500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>675600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>583000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>761000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>554100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>502900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>425900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>620200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1229800</v>
+      </c>
+      <c r="E58" s="3">
         <v>60700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>489300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>72700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>669600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>683500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1576400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1323100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1531400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>741700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2239100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1174900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>542400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>279700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1387000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1444400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1364300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1286000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1416400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1233900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1199800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>996900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1024500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1247600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1028200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>753300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>867600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>885500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3023900</v>
+      </c>
+      <c r="E60" s="3">
         <v>1962100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2404300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1947100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2661600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2563000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3508700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2995600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3138800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2744100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3821400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2431100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1835900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1785400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2608300</v>
+      </c>
+      <c r="E61" s="3">
         <v>2110500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2090900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2126800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2115900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2135200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2150600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2156600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2212600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2187800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2144200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2111600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2051500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2039200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2143800</v>
+      </c>
+      <c r="E62" s="3">
         <v>2174100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2127500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2176400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1280800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1285400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1291600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1308500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1271800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1306700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>971900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>986600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>985900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>973800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7775900</v>
+      </c>
+      <c r="E66" s="3">
         <v>6246700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6622700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6250400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6058300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5983700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6950900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6460600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6623200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6238600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6937500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5529400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4873200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4798400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1182200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1406000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>931100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1179600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1258300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1147800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>825800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>846100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1023700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1297000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1077700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1892300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2545500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3357300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4567600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4647600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4151600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4298500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4300600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4179600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3731100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3688100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3719900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3937400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3644300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4373100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4940900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-483800</v>
+      </c>
+      <c r="E81" s="3">
         <v>465000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>649000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>49200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>128800</v>
       </c>
-      <c r="H81" s="3">
-        <v>517900</v>
-      </c>
       <c r="I81" s="3">
+        <v>463500</v>
+      </c>
+      <c r="J81" s="3">
         <v>507100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>160400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>252800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-90300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>386100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>109900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>209200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>264300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E83" s="3">
         <v>-116800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>162000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>159200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>71400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>73900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>71100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>75700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>65500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>66400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>76100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1207100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-299300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-66200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>227600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1333700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-174200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>277100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-243200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1468000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>205600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-210200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1433400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-101900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-77700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-62300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46300</v>
       </c>
-      <c r="G91" s="3">
-        <v>-55400</v>
-      </c>
       <c r="H91" s="3">
-        <v>-65700</v>
+        <v>-70400</v>
       </c>
       <c r="I91" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-67100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-62500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-37400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-61500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-116600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-128100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-96500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-76800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-72100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>69800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-89100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-129200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-56000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-801300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>157500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-68300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-61600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-186400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-188700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-171100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-202500</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-201900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-201300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-182300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-181500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-181400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-181700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-165400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-164900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-172700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-173600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>931900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>288100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>123900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-153300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>146900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-344000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>406800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>931700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-283800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-346500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-875300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-10500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>16600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>814100</v>
+      </c>
+      <c r="E102" s="3">
         <v>77000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-98500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>62100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>17700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>179500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-113700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-216000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>119800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-980900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>873300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>68700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-622700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>488800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1076300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1439100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3384700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3393300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2271500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1682700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3227700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3219400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2137100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3045400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3361100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3508800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2359600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2500300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2743500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E9" s="3">
         <v>539800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1500300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1596300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1034700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2202100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3337700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3494100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2385600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1504000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1617900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1750800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1187400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1243900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1362400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>569300</v>
+      </c>
+      <c r="E10" s="3">
         <v>899300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1884400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1797000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1236800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-519400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-110000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-274700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-248500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1541400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1743200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1758000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1172200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1256400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1381100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,58 +1026,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>405100</v>
+        <v>8500</v>
       </c>
       <c r="E14" s="3">
-        <v>3900</v>
+        <v>407100</v>
       </c>
       <c r="F14" s="3">
-        <v>1000</v>
+        <v>28800</v>
       </c>
       <c r="G14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H14" s="3">
         <v>4800</v>
       </c>
-      <c r="H14" s="3">
-        <v>130900</v>
-      </c>
       <c r="I14" s="3">
-        <v>76800</v>
+        <v>131000</v>
       </c>
       <c r="J14" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K14" s="3">
         <v>57800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>10700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14900</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>104700</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>79600</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1862200</v>
+        <v>1323100</v>
       </c>
       <c r="E17" s="3">
-        <v>2805900</v>
+        <v>1864200</v>
       </c>
       <c r="F17" s="3">
-        <v>2814200</v>
+        <v>2830900</v>
       </c>
       <c r="G17" s="3">
+        <v>2814700</v>
+      </c>
+      <c r="H17" s="3">
         <v>2138200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1671400</v>
       </c>
-      <c r="I17" s="3">
-        <v>2711400</v>
-      </c>
       <c r="J17" s="3">
+        <v>2712100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2706700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2024000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2734100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2801500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3024900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2191600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2210700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2489800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-423100</v>
+        <v>-246800</v>
       </c>
       <c r="E18" s="3">
-        <v>578800</v>
+        <v>-425100</v>
       </c>
       <c r="F18" s="3">
-        <v>579100</v>
+        <v>553800</v>
       </c>
       <c r="G18" s="3">
+        <v>578600</v>
+      </c>
+      <c r="H18" s="3">
         <v>133300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>11300</v>
       </c>
-      <c r="I18" s="3">
-        <v>516300</v>
-      </c>
       <c r="J18" s="3">
+        <v>515600</v>
+      </c>
+      <c r="K18" s="3">
         <v>512700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>113100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>311300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>559600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>483900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>168000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>289600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>253700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-48100</v>
+        <v>-36900</v>
       </c>
       <c r="E20" s="3">
-        <v>-16600</v>
+        <v>-46100</v>
       </c>
       <c r="F20" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>12700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>7200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>6600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-17200</v>
-      </c>
-      <c r="L20" s="3">
-        <v>7200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>5800</v>
-      </c>
-      <c r="N20" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="P20" s="3">
-        <v>3500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>3100</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-220700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-407900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>445400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>744200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>305200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>121800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>585700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>590900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>148700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>390100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>648300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>563900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>235400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>359500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>332900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E22" s="3">
         <v>26800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>22300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>20800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>22100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>24100</v>
-      </c>
-      <c r="I22" s="3">
-        <v>28300</v>
       </c>
       <c r="J22" s="3">
         <v>28300</v>
       </c>
       <c r="K22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="L22" s="3">
         <v>27000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>24400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>27000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>27100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>24200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>23700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-312900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-497900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>539800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>561400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>123900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>494600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>486200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>68800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>294100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>538400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>461100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>145800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>269400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>232500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-35200</v>
+      </c>
+      <c r="E24" s="3">
         <v>165500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>87100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-87600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-9000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>75100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>54300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>68000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>74300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>56100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>17300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-277700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-663400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>452700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>649000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>97200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>419500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>431900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>58500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>256100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>470400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>386800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>114900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>213300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>215200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-277700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-663400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>452700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>649000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>97200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>419500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>431900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>58500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>256100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>470400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>386800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>213300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>215200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,58 +1754,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E29" s="3">
         <v>179700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>12300</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-48000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>131100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>44000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>75200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>101900</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-560700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-5000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>49100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>48100</v>
+        <v>36900</v>
       </c>
       <c r="E32" s="3">
-        <v>16600</v>
+        <v>46100</v>
       </c>
       <c r="F32" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>17200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="R32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-12700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>17200</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-5800</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-4300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-285600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-483800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>465000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>649000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>49200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>128800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>463500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>507100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>160400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>252800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-90300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>386100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>109900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>209200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>264300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-285600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-483800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>465000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>649000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>49200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>128800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>463500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>507100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>160400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>252800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-90300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>386100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>109900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>209200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>264300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,81 +2227,85 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2145100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1369000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>584000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>507600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>606100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>445100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>535300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>352800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>467900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>680800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>563500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1546100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>672500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>603300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1227900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>700000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>937500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1309200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1643500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1978600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1307800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1468400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1777800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2199400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1431500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1408600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1430000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1851400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1155700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1241500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1148800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1402900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1293900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1565000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1890700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1665100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1432700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1866100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2247900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1993800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1861400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1706600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1909600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1713000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1593400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1424600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1075700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1054800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>363200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>398300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>411800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1327300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>432900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>617800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>436900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>732500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>677700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>320300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>356500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>654000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>491900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6261100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5027000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4155700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4775200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3990900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4673500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4612100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5418000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4330100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4683300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4377800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5627400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3897700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4092200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4293100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2311600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2227900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2207400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2135500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2146200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>915200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1041600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1035700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1018200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1011600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1014600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>921200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>919000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>897400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1822000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3018400</v>
+      </c>
+      <c r="E49" s="3">
         <v>3010600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3487800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3449200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3525100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3765400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3812100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3846900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4000400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3813300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4049900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3579400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3631700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4924300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5003000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>887900</v>
+      </c>
+      <c r="E52" s="3">
         <v>867800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>963400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>910500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>739800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1254500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>818500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>829900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>843000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>803000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>783700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>746900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>725400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1146500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1461600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12479000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11133300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10814300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11270400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10402000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10356800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10284300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11130400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10191800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10311300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9958500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10874900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9173700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9246300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9739300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>348900</v>
+      </c>
+      <c r="E57" s="3">
         <v>407000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>457000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>550700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>588400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>580900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>645700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>732500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>675600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>583000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>761000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>554100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>502900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>425900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>620200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1229800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>60700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>489300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>72700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>669600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>683500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1576400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1323100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1531400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>741700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2239100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1174900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>542400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>279700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1346300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1387000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1444400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1364300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1286000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1416400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1233900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1199800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>996900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1024500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1247600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1028200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>753300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>867600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>885500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1715500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3023900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1962100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2404300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1947100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2661600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2563000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3508700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2995600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3138800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2744100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3821400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2431100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1835900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1785400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5609800</v>
+      </c>
+      <c r="E61" s="3">
         <v>2608300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2110500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2090900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2126800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2115900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2135200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2150600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2156600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2212600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2187800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2144200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2111600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2051500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2039200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2241200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2143800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2174100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2127500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2176400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1280800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1285400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1291600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1308500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1271800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1306700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>971900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>986600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>985900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>973800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9566400</v>
+      </c>
+      <c r="E66" s="3">
         <v>7775900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6246700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6622700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6250400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6058300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5983700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6950900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6460600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6623200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6238600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6937500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5529400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4873200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4798400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-298100</v>
+      </c>
+      <c r="E72" s="3">
         <v>7300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1182200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1406000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>931100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1179600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1258300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1147800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>825800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>846100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1023700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1297000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1077700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1892300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2545500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2912600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3357300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4567600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4647600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4151600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4298500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4300600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4179600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3731100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3688100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3719900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3937400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3644300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4373100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4940900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-285600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-483800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>465000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>649000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>49200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>128800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>463500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>507100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>160400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>252800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-90300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>386100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>109900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>209200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>264300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E83" s="3">
         <v>63300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>-116800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>162000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>159200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>84600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>71400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>73900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>71100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>71500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>75700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>65500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>66400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>76100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E89" s="3">
         <v>32900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1207100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-299300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-66200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>227600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1333700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-174200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>277100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-243200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1468000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>205600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-210200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1433400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-101900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-77700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-62300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-46300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-70400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-67100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-37400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-116600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-785200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-128100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-96500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-76800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-72100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>69800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-89100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-129200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-801300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>157500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-61600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-186700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-186400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-188700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-171100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-202500</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-201900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-201300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-182300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-181500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-181400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-181700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-165400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-164900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-172700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-173600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1562700</v>
+      </c>
+      <c r="E100" s="3">
         <v>931900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>288100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>123900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-153300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>146900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-344000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>406800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>931700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-283800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-346500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-875300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-22500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-10500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>15500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>16600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>12200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>778400</v>
+      </c>
+      <c r="E102" s="3">
         <v>814100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>77000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-98500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>62100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>179500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-113700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-216000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>119800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-980900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>873300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>68700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-622700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>488800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -761,7 +761,7 @@
         <v>3393300</v>
       </c>
       <c r="H8" s="3">
-        <v>2271500</v>
+        <v>2050700</v>
       </c>
       <c r="I8" s="3">
         <v>1682700</v>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>507000</v>
+        <v>493000</v>
       </c>
       <c r="E9" s="3">
         <v>539800</v>
@@ -814,7 +814,7 @@
         <v>1596300</v>
       </c>
       <c r="H9" s="3">
-        <v>1034700</v>
+        <v>1931000</v>
       </c>
       <c r="I9" s="3">
         <v>2202100</v>
@@ -855,7 +855,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>569300</v>
+        <v>583300</v>
       </c>
       <c r="E10" s="3">
         <v>899300</v>
@@ -867,7 +867,7 @@
         <v>1797000</v>
       </c>
       <c r="H10" s="3">
-        <v>1236800</v>
+        <v>119700</v>
       </c>
       <c r="I10" s="3">
         <v>-519400</v>
@@ -1035,7 +1035,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>8500</v>
+        <v>22500</v>
       </c>
       <c r="E14" s="3">
         <v>407100</v>
@@ -1171,7 +1171,7 @@
         <v>2814700</v>
       </c>
       <c r="H17" s="3">
-        <v>2138200</v>
+        <v>1954700</v>
       </c>
       <c r="I17" s="3">
         <v>1671400</v>
@@ -1224,7 +1224,7 @@
         <v>578600</v>
       </c>
       <c r="H18" s="3">
-        <v>133300</v>
+        <v>96000</v>
       </c>
       <c r="I18" s="3">
         <v>11300</v>
@@ -1298,7 +1298,7 @@
         <v>3700</v>
       </c>
       <c r="H20" s="3">
-        <v>12700</v>
+        <v>12100</v>
       </c>
       <c r="I20" s="3">
         <v>1600</v>
@@ -1351,7 +1351,7 @@
         <v>744200</v>
       </c>
       <c r="H21" s="3">
-        <v>305200</v>
+        <v>267200</v>
       </c>
       <c r="I21" s="3">
         <v>121800</v>
@@ -1457,7 +1457,7 @@
         <v>561400</v>
       </c>
       <c r="H23" s="3">
-        <v>123900</v>
+        <v>85900</v>
       </c>
       <c r="I23" s="3">
         <v>-11300</v>
@@ -1510,7 +1510,7 @@
         <v>-87600</v>
       </c>
       <c r="H24" s="3">
-        <v>26600</v>
+        <v>20700</v>
       </c>
       <c r="I24" s="3">
         <v>-9000</v>
@@ -1616,7 +1616,7 @@
         <v>649000</v>
       </c>
       <c r="H26" s="3">
-        <v>97200</v>
+        <v>65300</v>
       </c>
       <c r="I26" s="3">
         <v>-2300</v>
@@ -1669,7 +1669,7 @@
         <v>649000</v>
       </c>
       <c r="H27" s="3">
-        <v>97200</v>
+        <v>65300</v>
       </c>
       <c r="I27" s="3">
         <v>-2300</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-48000</v>
+        <v>-16100</v>
       </c>
       <c r="I29" s="3">
         <v>131100</v>
@@ -1934,7 +1934,7 @@
         <v>-3700</v>
       </c>
       <c r="H32" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="I32" s="3">
         <v>-1600</v>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,270 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2971500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2608300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1076300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1439100</v>
       </c>
-      <c r="F8" s="3">
-        <v>3384700</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3393300</v>
-      </c>
       <c r="H8" s="3">
+        <v>3155700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3179800</v>
+      </c>
+      <c r="J8" s="3">
         <v>2050700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1682700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3227700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3219400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2137100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3045400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>3361100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3508800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2359600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2500300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2743500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1322500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1279200</v>
+      </c>
+      <c r="F9" s="3">
         <v>493000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>539800</v>
       </c>
-      <c r="F9" s="3">
-        <v>1500300</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1596300</v>
-      </c>
       <c r="H9" s="3">
+        <v>2851900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>3052600</v>
+      </c>
+      <c r="J9" s="3">
         <v>1931000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2202100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3337700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3494100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2385600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1504000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1617900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1750800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1187400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1243900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1362400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1649000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1329100</v>
+      </c>
+      <c r="F10" s="3">
         <v>583300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>899300</v>
       </c>
-      <c r="F10" s="3">
-        <v>1884400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1797000</v>
-      </c>
       <c r="H10" s="3">
+        <v>303800</v>
+      </c>
+      <c r="I10" s="3">
+        <v>127200</v>
+      </c>
+      <c r="J10" s="3">
         <v>119700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-519400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-110000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-274700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-248500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1541400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1743200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1758000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1172200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1256400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1381100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,61 +1062,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F14" s="3">
         <v>22500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>407100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>28800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>4800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>131000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>77500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>57800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>10700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>14900</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3">
-        <v>104700</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>104700</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>79600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1180,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2559500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2288400</v>
+      </c>
+      <c r="F17" s="3">
         <v>1323100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1864200</v>
       </c>
-      <c r="F17" s="3">
-        <v>2830900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>2814700</v>
-      </c>
       <c r="H17" s="3">
+        <v>2615700</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2631200</v>
+      </c>
+      <c r="J17" s="3">
         <v>1954700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1671400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2712100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2706700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2024000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2734100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2801500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3024900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2191600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2210700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2489800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>319900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-246800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-425100</v>
       </c>
-      <c r="F18" s="3">
-        <v>553800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>578600</v>
-      </c>
       <c r="H18" s="3">
+        <v>540000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>548600</v>
+      </c>
+      <c r="J18" s="3">
         <v>96000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>11300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>515600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>512700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>113100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>311300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>559600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>483900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>168000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>289600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>253700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,273 +1345,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F20" s="3">
         <v>-36900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-46100</v>
       </c>
-      <c r="F20" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>3700</v>
-      </c>
       <c r="H20" s="3">
-        <v>12100</v>
+        <v>5100</v>
       </c>
       <c r="I20" s="3">
+        <v>23400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>34200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-17200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>5800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>486700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>403600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-220700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-407900</v>
       </c>
-      <c r="F21" s="3">
-        <v>445400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>744200</v>
-      </c>
       <c r="H21" s="3">
-        <v>267200</v>
+        <v>428400</v>
       </c>
       <c r="I21" s="3">
+        <v>734000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>289400</v>
+      </c>
+      <c r="K21" s="3">
         <v>121800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>585700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>590900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>148700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>390100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>648300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>563900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>235400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>359500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>332900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>34100</v>
+      </c>
+      <c r="F22" s="3">
         <v>29300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>26800</v>
       </c>
-      <c r="F22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>20800</v>
-      </c>
       <c r="H22" s="3">
-        <v>22100</v>
+        <v>44600</v>
       </c>
       <c r="I22" s="3">
+        <v>41600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K22" s="3">
         <v>24100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>28300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>28300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>27000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>24400</v>
       </c>
       <c r="N22" s="3">
         <v>27000</v>
       </c>
       <c r="O22" s="3">
+        <v>24400</v>
+      </c>
+      <c r="P22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>27100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>24200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>23700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>24300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>386700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>293700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-312900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-497900</v>
       </c>
-      <c r="F23" s="3">
-        <v>539800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>561400</v>
-      </c>
       <c r="H23" s="3">
+        <v>500600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>530400</v>
+      </c>
+      <c r="J23" s="3">
         <v>85900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>494600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>486200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>68800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>294100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>538400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>461100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>145800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>269400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>232500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>50400</v>
+      </c>
+      <c r="F24" s="3">
         <v>-35200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>165500</v>
       </c>
-      <c r="F24" s="3">
-        <v>87100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-87600</v>
-      </c>
       <c r="H24" s="3">
+        <v>79000</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="J24" s="3">
         <v>20700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-9000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>75100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>54300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>38100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>68000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>74300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>30900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>56100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>17300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>327700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>243200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-277700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-663400</v>
       </c>
-      <c r="F26" s="3">
-        <v>452700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>649000</v>
-      </c>
       <c r="H26" s="3">
+        <v>421600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>625400</v>
+      </c>
+      <c r="J26" s="3">
         <v>65300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>419500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>431900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>58500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>256100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>470400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>386800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>114900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>213300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>215200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>327700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>243200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-277700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-663400</v>
       </c>
-      <c r="F27" s="3">
-        <v>452700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>649000</v>
-      </c>
       <c r="H27" s="3">
+        <v>421600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>625400</v>
+      </c>
+      <c r="J27" s="3">
         <v>65300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>419500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>431900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>58500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>256100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>470400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>386800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>114900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>213300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>215200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,61 +1872,73 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F29" s="3">
         <v>-7900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>179700</v>
       </c>
-      <c r="F29" s="3">
-        <v>12300</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>43400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>23600</v>
+      </c>
+      <c r="J29" s="3">
         <v>-16100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>131100</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>44000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>75200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>101900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-3300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-560700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-4100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>49100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="F32" s="3">
         <v>36900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>46100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H32" s="3">
-        <v>-12100</v>
+        <v>-5100</v>
       </c>
       <c r="I32" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>17200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-5800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>347200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>256700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-285600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-483800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>465000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>649000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>49200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>128800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>463500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>507100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>160400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>252800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-90300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>386100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>109900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>209200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>264300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>347200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>256700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-285600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-483800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>465000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>649000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>49200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>128800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>463500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>507100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>160400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>252800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-90300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>386100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>109900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>209200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>264300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,72 +2399,80 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3254200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1877400</v>
+      </c>
+      <c r="F41" s="3">
         <v>2145100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1369000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>584000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>507600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>606100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>445100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>535300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>352800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>467900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>680800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>563500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1546100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>672500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>603300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1227900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>599400</v>
+      </c>
+      <c r="E42" s="3">
+        <v>800000</v>
+      </c>
+      <c r="F42" s="3">
         <v>700000</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -2307,11 +2486,11 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2334,220 +2513,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1413100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1609100</v>
+      </c>
+      <c r="F43" s="3">
         <v>937500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1309200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1643500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1978600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1307800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1468400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1777800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2199400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1431500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1408600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1430000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1851400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1155700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1241500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1148800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1076000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1434800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1402900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1293900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1565000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1890700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1665100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1432700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1866100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2247900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1993800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1861400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1706600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1909600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1713000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1593400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1424600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>942500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>958900</v>
+      </c>
+      <c r="F45" s="3">
         <v>1075700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1054800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>363200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>398300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>411800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1327300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>432900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>617800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>436900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>732500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>677700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>320300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>356500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>654000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>491900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7285200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6680200</v>
+      </c>
+      <c r="F46" s="3">
         <v>6261100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5027000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4155700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4775200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3990900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4673500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4612100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5418000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4330100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4683300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4377800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5627400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3897700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4092200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4293100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2808,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2432300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2319100</v>
+      </c>
+      <c r="F48" s="3">
         <v>2311600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2227900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2207400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2135500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2146200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>915200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1041600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1035700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1018200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1011600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1014600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>921200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>919000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>897400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1822000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3056300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3024600</v>
+      </c>
+      <c r="F49" s="3">
         <v>3018400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3010600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3487800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3449200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3525100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3765400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3812100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3846900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>4000400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3813300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4049900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3579400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3631700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4924300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5003000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>970500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>917300</v>
+      </c>
+      <c r="F52" s="3">
         <v>887900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>867800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>963400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>910500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>739800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1254500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>818500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>829900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>843000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>803000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>783700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>746900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>725400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1146500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1461600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13744300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>12941300</v>
+      </c>
+      <c r="F54" s="3">
         <v>12479000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11133300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10814300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11270400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10402000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10356800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10284300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11130400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10191800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10311300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9958500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10874900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9173700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>9246300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9739300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3271,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>412300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>450100</v>
+      </c>
+      <c r="F57" s="3">
         <v>348900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>407000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>457000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>550700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>588400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>580900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>645700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>732500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>675600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>583000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>761000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>554100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>502900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>425900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>620200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>300800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F58" s="3">
         <v>20300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1229800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>60700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>489300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>72700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>669600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>683500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1576400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1323100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1531400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>741700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2239100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1174900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>542400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>279700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1784900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1620100</v>
+      </c>
+      <c r="F59" s="3">
         <v>1346300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1387000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1444400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1364300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1286000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1416400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1233900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1199800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>996900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1024500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1247600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1028200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>753300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>867600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>885500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2498000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2084500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1715500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3023900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1962100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2404300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1947100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2661600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2563000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3508700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2995600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3138800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2744100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3821400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2431100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1835900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1785400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5786600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5679400</v>
+      </c>
+      <c r="F61" s="3">
         <v>5609800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2608300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2110500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2090900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2126800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2115900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2135200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2150600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2156600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2212600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2187800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2144200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2111600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2051500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2039200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2321600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2232100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2241200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2143800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2174100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2127500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2176400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1280800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1285400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1291600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1308500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1271800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1306700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>971900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>986600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>985900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>973800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10606200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9996000</v>
+      </c>
+      <c r="F66" s="3">
         <v>9566400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>7775900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6246700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6622700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6250400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6058300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5983700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6950900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6460600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6623200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6238600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6937500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5529400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4873200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4798400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>300500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-298100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1182200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1406000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>931100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1179600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1258300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1147800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>825800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>846100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1023700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1297000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1077700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1892300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>2545500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3138200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2945200</v>
+      </c>
+      <c r="F76" s="3">
         <v>2912600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3357300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4567600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4647600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4151600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4298500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4300600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4179600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3731100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3688100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3719900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3937400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3644300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4373100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4940900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44191</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>347200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>256700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-285600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-483800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>465000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>649000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>49200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>128800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>463500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>507100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>160400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>252800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-90300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>386100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>109900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>209200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>264300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>75800</v>
+      </c>
+      <c r="F83" s="3">
         <v>63000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>63300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>-116800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>162000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>159200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>84600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>71400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>73900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>71100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>71500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>82900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>75700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>65500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>66400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>76100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1059200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>86000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>32900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1207100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-299300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-66200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>227600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1333700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-174200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>277100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-243200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1468000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>11200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>205600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-210200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1433400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-43300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-69200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-101900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-77700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-62300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-46300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-70400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-50700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-67100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-62500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-54400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-45200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-46200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-37400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-61500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-116600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-172200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-785200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-128100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-96500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-76800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-72100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>69800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-89100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-129200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-56000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-801300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-64000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>157500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-68300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-61600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5315,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-191300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-186900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-186700</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-186400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-188700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-171100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-202500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-201900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-201300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-182300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-181500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-181400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-181700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-165400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-164900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-172700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-173600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-185200</v>
+      </c>
+      <c r="F100" s="3">
         <v>1562700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>931900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>288100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>123900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-153300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>146900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-344000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>406800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>931700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-283800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-346500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-875300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F101" s="3">
         <v>4100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-22500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-10500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>5100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>15500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>16600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>12200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>16900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-5600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-10600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-7600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1368500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-283600</v>
+      </c>
+      <c r="F102" s="3">
         <v>778400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>814100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>77000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-98500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>62100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>17700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>179500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-113700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-216000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>119800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-980900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>873300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>68700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-622700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>488800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,295 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F7" s="2">
         <v>44191</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2194600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2582700</v>
+      </c>
+      <c r="F8" s="3">
         <v>2971500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2608300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1076300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1439100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3155700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3179800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2050700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1682700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3227700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3219400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2137100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3045400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3361100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3508800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2359600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2500300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2743500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>954200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1232100</v>
+      </c>
+      <c r="F9" s="3">
         <v>1322500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1279200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>493000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>539800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2851900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3052600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1931000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2202100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3337700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3494100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2385600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1504000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1617900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1750800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1187400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1243900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1362400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1240400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1350600</v>
+      </c>
+      <c r="F10" s="3">
         <v>1649000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1329100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>583300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>899300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>303800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>127200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>119700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-519400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-110000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-274700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-248500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1541400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1743200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1758000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1172200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1256400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1381100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +975,10 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1036,14 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,67 +1101,79 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>55400</v>
+      </c>
+      <c r="F14" s="3">
         <v>38200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>23400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>22500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>407100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>28800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>131000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>77500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>57800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>10700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>14900</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>104700</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>104700</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>79600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1257,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1991700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2460200</v>
+      </c>
+      <c r="F17" s="3">
         <v>2559500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2288400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1323100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1864200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2615700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2631200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1954700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1671400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2712100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2706700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2024000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2734100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2801500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3024900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2191600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2210700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2489800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>202900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>122500</v>
+      </c>
+      <c r="F18" s="3">
         <v>412000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>319900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-246800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-425100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>540000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>548600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>96000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>11300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>515600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>512700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>113100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>311300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>559600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>483900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>168000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>289600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>253700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1412,335 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F20" s="3">
         <v>9100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>7800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-36900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-46100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>23400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>34200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-17200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>4300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>3500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>3100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>282100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>191500</v>
+      </c>
+      <c r="F21" s="3">
         <v>486700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>403600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-220700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-407900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>428400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>734000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>289400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>121800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>585700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>590900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>148700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>390100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>648300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>563900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>235400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>359500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>332900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>38000</v>
+      </c>
+      <c r="F22" s="3">
         <v>34300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>34100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>29300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>26800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>44600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>41600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>44300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>24100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>28300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>28300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>27000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>24400</v>
       </c>
       <c r="P22" s="3">
         <v>27000</v>
       </c>
       <c r="Q22" s="3">
+        <v>24400</v>
+      </c>
+      <c r="R22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="S22" s="3">
         <v>27100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>24200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>23700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>24300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>179200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F23" s="3">
         <v>386700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>293700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-312900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-497900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>500600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>530400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>85900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>494600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>486200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>68800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>294100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>538400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>461100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>145800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>269400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>232500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F24" s="3">
         <v>59000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>50400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-35200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>165500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>79000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-95000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>20700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-9000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>75100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>54300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>10400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>38100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>68000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>74300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>30900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>56100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>17300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F26" s="3">
         <v>327700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>243200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-277700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-663400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>421600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>625400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>65300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>419500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>431900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>58500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>256100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>470400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>386800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>114900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>213300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>215200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>61700</v>
+      </c>
+      <c r="F27" s="3">
         <v>327700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>243200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-277700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-663400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>421600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>625400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>65300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>419500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>431900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>58500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>256100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>470400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>386800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>114900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>213300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>215200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,67 +1993,79 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>170300</v>
+      </c>
+      <c r="E29" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F29" s="3">
         <v>19600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="G29" s="3">
         <v>13500</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-7900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>179700</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>43400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>23600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-16100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>131100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>44000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>75200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>101900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-3300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-560700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-5000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-4100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>49100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2188,144 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-9100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-7800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>36900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>46100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-23400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-34200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>17200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-4300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-3500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-3100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>89500</v>
+      </c>
+      <c r="F33" s="3">
         <v>347200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>256700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-285600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-483800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>465000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>649000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>49200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>128800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>463500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>507100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>160400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>252800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-90300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>386100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>109900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>209200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>264300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>89500</v>
+      </c>
+      <c r="F35" s="3">
         <v>347200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>256700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-285600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-483800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>465000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>649000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>49200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>128800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>463500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>507100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>160400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>252800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-90300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>386100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>109900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>209200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>264300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F38" s="2">
         <v>44191</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,84 +2572,92 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1274900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>815800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3254200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1877400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2145100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1369000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>584000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>507600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>606100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>445100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>535300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>352800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>467900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>680800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>563500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1546100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>672500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>603300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>1227900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>598800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>598800</v>
+      </c>
+      <c r="F42" s="3">
         <v>599400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>800000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>700000</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -2492,11 +2671,11 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2519,244 +2698,274 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1139900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1298900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1413100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1609100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>937500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1309200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1643500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1978600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1307800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1468400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1777800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2199400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1431500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1408600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1430000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1851400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1155700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1241500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1148800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1216800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1061800</v>
+      </c>
+      <c r="F44" s="3">
         <v>1076000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1434800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1402900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1293900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1565000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1890700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1665100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1432700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1866100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>2247900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1993800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1861400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1706600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1909600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1713000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1593400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1424600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>333600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1010600</v>
+      </c>
+      <c r="F45" s="3">
         <v>942500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>958900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1075700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1054800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>363200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>398300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>411800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1327300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>432900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>617800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>436900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>732500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>677700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>320300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>356500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>654000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>491900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4564100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4785900</v>
+      </c>
+      <c r="F46" s="3">
         <v>7285200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>6680200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>6261100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5027000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4155700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4775200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3990900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4673500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4612100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5418000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4330100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4683300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4377800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5627400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3897700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4092200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4293100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +3023,144 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2443200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2450300</v>
+      </c>
+      <c r="F48" s="3">
         <v>2432300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2319100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2311600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2227900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2207400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2135500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2146200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>915200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1041600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1035700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1018200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1011600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1014600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>921200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>919000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>897400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1822000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5455200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5455000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3056300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3024600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3018400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3010600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3487800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3449200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3525100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3765400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3812100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3846900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4000400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3813300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>4049900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3579400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3631700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>4924300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5003000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3283,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1087800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1062900</v>
+      </c>
+      <c r="F52" s="3">
         <v>970500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>917300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>887900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>867800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>963400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>910500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>739800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1254500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>818500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>829900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>843000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>803000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>783700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>746900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>725400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1146500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1461600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13550400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13754000</v>
+      </c>
+      <c r="F54" s="3">
         <v>13744300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>12941300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>12479000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>11133300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10814300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11270400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10402000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10356800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10284300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11130400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10191800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10311300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>9958500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10874900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>9173700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9246300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9739300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3532,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>534800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>463200</v>
+      </c>
+      <c r="F57" s="3">
         <v>412300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>450100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>348900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>407000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>457000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>550700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>588400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>580900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>645700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>732500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>675600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>583000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>761000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>554100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>502900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>425900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>620200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1009100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F58" s="3">
         <v>300800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>14400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>20300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1229800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>60700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>489300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>72700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>669600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>683500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1576400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1323100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1531400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>741700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2239100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1174900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>542400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>279700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1527500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1735200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1784900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1620100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1346300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1387000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1444400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1364300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1286000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1416400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1233900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1199800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>996900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1024500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1247600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1028200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>753300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>867600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>885500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3071400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2210500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2498000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2084500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1715500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3023900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1962100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2404300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1947100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2661600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2563000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3508700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2995600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3138800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2744100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3821400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2431100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1835900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1785400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4726200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5709100</v>
+      </c>
+      <c r="F61" s="3">
         <v>5786600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5679400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5609800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2608300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2110500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2090900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2126800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2115900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2135200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2150600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2156600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2212600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2187800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2144200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2111600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2051500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2039200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2478600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2778200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2321600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2232100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2241200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2143800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2174100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2127500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2176400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1280800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1285400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1291600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1308500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1271800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1306700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>971900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>986600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>985900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>973800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10276300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10697900</v>
+      </c>
+      <c r="F66" s="3">
         <v>10606200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9996000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9566400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>7775900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6246700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>6622700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6250400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6058300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>5983700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6950900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6460600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6623200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6238600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6937500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5529400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>4873200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4798400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>317100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>189500</v>
+      </c>
+      <c r="F72" s="3">
         <v>300500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-45000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-298100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>7300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1182200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1406000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>931100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1179600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1258300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1147800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>825800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>846100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1023700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1297000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1077700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1892300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>2545500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3274000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3056200</v>
+      </c>
+      <c r="F76" s="3">
         <v>3138200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2945200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2912600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3357300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4567600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4647600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4151600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4298500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4300600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4179600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3731100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3688100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3719900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>3937400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3644300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4373100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4940900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="F80" s="2">
         <v>44191</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>89500</v>
+      </c>
+      <c r="F81" s="3">
         <v>347200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>256700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-285600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-483800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>465000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>649000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>49200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>128800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>463500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>507100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>160400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>252800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-90300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>386100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>109900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>209200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>264300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +5017,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>68100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>64500</v>
+      </c>
+      <c r="F83" s="3">
         <v>65700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>75800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>63000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>63300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>-116800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>162000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>159200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>84600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>71400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>73900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>71100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>71500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>82900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>75700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>65500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>66400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>76100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>171200</v>
+      </c>
+      <c r="F89" s="3">
         <v>1059200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>86000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>32900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1207100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-299300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-66200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>227600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1333700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-174200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>277100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-243200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1468000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>11200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>205600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-210200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1433400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5497,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-93200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-46200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-39900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-43300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-69200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-101900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-77700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-62300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-46300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-70400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-50700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-67100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-62500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-54400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-45200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-46200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-37400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-61500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-116600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5688,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>508800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-2078900</v>
+      </c>
+      <c r="F94" s="3">
         <v>140700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-172200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-785200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-128100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-96500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-76800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-72100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>69800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-89100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-129200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-56000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-801300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-64000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>157500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-68300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-61600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5782,75 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-192100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-191900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-191300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-186900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-186700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-186400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-188700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-171100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-202500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-201900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-201300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-182300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-181500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-181400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-181700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-165400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-164900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-172700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-173600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +6038,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-174400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-472500</v>
+      </c>
+      <c r="F100" s="3">
         <v>147900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-185200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1562700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>931900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>288100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>123900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-153300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>146900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-344000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>406800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>931700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-283800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-346500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-875300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="F101" s="3">
         <v>20600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-12200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>4100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-22500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-10500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>5100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>15500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>16600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>12200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>16900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-5600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-10600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>2200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-7600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>425400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2423400</v>
+      </c>
+      <c r="F102" s="3">
         <v>1368500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-283600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>778400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>814100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>77000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-98500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>62100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>17700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>179500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-113700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-216000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>119800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-980900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>873300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>68700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-622700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>488800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44191</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3198200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2194600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2582700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2971500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2608300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1076300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1439100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3155700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3179800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2050700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1682700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3227700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3219400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2137100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3045400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3361100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3508800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2359600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2500300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2743500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1479300</v>
+      </c>
+      <c r="E9" s="3">
         <v>954200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1232100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1322500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1279200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>493000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>539800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2851900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3052600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1931000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2202100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3337700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3494100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2385600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1504000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1617900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1750800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1187400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1243900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1362400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1718900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1240400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1350600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1649000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1329100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>583300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>899300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>303800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>127200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-519400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-110000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-274700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-248500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1541400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1743200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1758000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1172200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1256400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1381100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1123,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>55400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>38200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>407100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>131000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>77500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>57800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>10700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14900</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>104700</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W14" s="3">
         <v>79600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2639700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1991700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2460200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2559500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2288400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1323100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1864200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2615700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2631200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1954700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1671400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2712100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2706700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2024000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2734100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2801500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3024900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2191600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2210700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2489800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>558500</v>
+      </c>
+      <c r="E18" s="3">
         <v>202900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>122500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>412000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>319900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-246800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-425100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>540000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>548600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>11300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>515600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>512700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>113100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>311300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>559600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>483900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>168000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>289600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>253700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1446,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E20" s="3">
         <v>11100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>9100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-36900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-46100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>23400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>34200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>634100</v>
+      </c>
+      <c r="E21" s="3">
         <v>282100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>191500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>486700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>403600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-220700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-407900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>428400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>734000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>289400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>121800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>585700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>590900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>148700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>390100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>648300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>563900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>235400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>359500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>332900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E22" s="3">
         <v>34900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>29300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>26800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>41600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>44300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>24100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>28300</v>
       </c>
       <c r="O22" s="3">
         <v>28300</v>
       </c>
       <c r="P22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="Q22" s="3">
         <v>27000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>27000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>27100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>24200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>23700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>531700</v>
+      </c>
+      <c r="E23" s="3">
         <v>179200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>89000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>386700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>293700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-312900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-497900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>530400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>85900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>494600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>486200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>68800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>294100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>538400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>461100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>145800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>269400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>232500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>67600</v>
+      </c>
+      <c r="E24" s="3">
         <v>25200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>59000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>50400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-35200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>165500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>79000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-95000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>20700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>75100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>54300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>68000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>74300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>56100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>17300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E26" s="3">
         <v>154000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>61700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>327700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>243200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-277700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-663400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>421600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>625400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>65300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>419500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>431900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>58500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>256100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>470400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>386800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>114900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>213300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>215200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E27" s="3">
         <v>154000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>61700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>327700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>243200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-277700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-663400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>421600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>625400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>65300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>419500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>431900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>58500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>256100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>470400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>386800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>114900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>213300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>215200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,73 +2056,79 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3">
         <v>170300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>27800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>19600</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>13500</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-7900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>179700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>43400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>23600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-16100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>131100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>44000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>75200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>101900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-560700</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-5000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-4100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>49100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-11100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-9100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>36900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>46100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-23400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-34200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E33" s="3">
         <v>324200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>89500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>347200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>256700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-285600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-483800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>465000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>649000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>49200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>128800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>463500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>507100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>160400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>252800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-90300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>386100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>109900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>209200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>264300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E35" s="3">
         <v>324200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>89500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>347200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>256700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-285600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-483800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>465000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>649000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>49200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>128800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>463500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>507100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>160400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>252800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-90300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>386100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>109900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>209200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>264300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44191</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,93 +2659,97 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1360100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1274900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>815800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3254200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1877400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2145100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1369000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>584000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>507600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>606100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>445100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>535300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>352800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>467900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>680800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>563500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1546100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>672500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>603300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1227900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>598800</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>598800</v>
       </c>
       <c r="F42" s="3">
+        <v>598800</v>
+      </c>
+      <c r="G42" s="3">
         <v>599400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>800000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>700000</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2677,8 +2766,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2704,268 +2793,283 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1789100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1139900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1298900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1413100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1609100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>937500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1309200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1643500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1978600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1307800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1468400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1777800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2199400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1431500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1408600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1430000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1851400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1155700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1241500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1148800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1464700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1216800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1061800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1076000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1434800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1402900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1293900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1565000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1890700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1665100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1432700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1866100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2247900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1993800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1861400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1706600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1909600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1713000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1593400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1424600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>355900</v>
+      </c>
+      <c r="E45" s="3">
         <v>333600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1010600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>942500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>958900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1075700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1054800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>363200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>398300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>411800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1327300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>432900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>617800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>436900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>732500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>677700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>320300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>356500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>654000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>491900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4969900</v>
+      </c>
+      <c r="E46" s="3">
         <v>4564100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4785900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7285200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6680200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6261100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5027000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4155700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4775200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3990900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4673500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4612100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5418000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4330100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4683300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4377800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5627400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3897700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4092200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4293100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,138 +3133,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2391500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2443200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2450300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2432300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2319100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2311600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2227900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2207400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2135500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2146200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>915200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1041600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1035700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1018200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1011600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1014600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>921200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>919000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>897400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1822000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5434000</v>
+      </c>
+      <c r="E49" s="3">
         <v>5455200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5455000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3056300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3024600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3018400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3010600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3487800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3449200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3525100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3765400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3812100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3846900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4000400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3813300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4049900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3579400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3631700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4924300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5003000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1093700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1087800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1062900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>970500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>917300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>887900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>867800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>963400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>910500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>739800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1254500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>818500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>829900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>843000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>803000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>783700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>746900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>725400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1146500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1461600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13889100</v>
+      </c>
+      <c r="E54" s="3">
         <v>13550400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13754000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13744300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12941300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12479000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11133300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10814300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11270400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10402000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10356800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10284300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11130400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10191800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10311300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9958500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10874900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9173700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9246300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9739300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3663,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>534400</v>
+      </c>
+      <c r="E57" s="3">
         <v>534800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>463200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>412300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>450100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>348900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>407000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>457000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>550700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>588400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>580900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>645700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>732500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>675600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>583000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>761000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>554100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>502900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>425900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>620200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1011200</v>
+      </c>
+      <c r="E58" s="3">
         <v>1009100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1229800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>60700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>489300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>72700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>669600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>683500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1576400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1323100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1531400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>741700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2239100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1174900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>542400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>279700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1838800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1527500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1735200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1784900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1620100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1346300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1387000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1444400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1364300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1286000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1416400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1233900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1199800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>996900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1024500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1247600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1028200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>753300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>867600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>885500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3384400</v>
+      </c>
+      <c r="E60" s="3">
         <v>3071400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2210500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2498000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2084500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1715500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3023900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1962100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2404300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1947100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2661600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2563000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3508700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2995600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3138800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2744100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3821400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2431100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1835900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1785400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4682800</v>
+      </c>
+      <c r="E61" s="3">
         <v>4726200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5709100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5786600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5679400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5609800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2608300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2110500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2090900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2126800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2115900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2135200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2150600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2156600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2212600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2187800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2144200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2111600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2051500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2039200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2223500</v>
+      </c>
+      <c r="E62" s="3">
         <v>2478600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2778200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2321600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2232100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2241200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2143800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2174100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2127500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2176400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1280800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1285400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1291600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1308500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1271800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1306700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>971900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>986600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>985900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>973800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10290600</v>
+      </c>
+      <c r="E66" s="3">
         <v>10276300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10697900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10606200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9996000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9566400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>7775900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6246700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6622700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6250400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6058300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5983700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6950900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6460600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6623200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6238600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6937500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5529400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4873200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4798400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>586400</v>
+      </c>
+      <c r="E72" s="3">
         <v>317100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>189500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>300500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-298100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>7300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1182200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1406000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>931100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1179600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1258300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1147800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>825800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>846100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1023700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1297000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1077700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1892300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2545500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3598500</v>
+      </c>
+      <c r="E76" s="3">
         <v>3274000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3056200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3138200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2945200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2912600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3357300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4567600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4647600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4151600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4298500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4300600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4179600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3731100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3688100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3719900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3937400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3644300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4373100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4940900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44191</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>464100</v>
+      </c>
+      <c r="E81" s="3">
         <v>324200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>89500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>347200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>256700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-285600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-483800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>465000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>649000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>49200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>128800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>463500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>507100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>160400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>252800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-90300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>386100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>109900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>209200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>264300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E83" s="3">
         <v>68100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>64500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>75800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>63000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>-116800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>162000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>159200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>84600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>71400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>73900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>71100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>71500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>82900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>75700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>65500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>66400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>76100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-252100</v>
+      </c>
+      <c r="E89" s="3">
         <v>81000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>171200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1059200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>86000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>32900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1207100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-299300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-66200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>227600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1333700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-174200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>277100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-243200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1468000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>205600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-210200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1433400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-93200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-46200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-39900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-43300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-101900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-77700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-70400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-50700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-67100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-62500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-54400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-45200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-46200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-116600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>543500</v>
+      </c>
+      <c r="E94" s="3">
         <v>508800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2078900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>140700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-172200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-785200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-128100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-96500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>69800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-89100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-129200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-56000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-801300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-64000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>157500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-68300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-61600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6016,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-192300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-192100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-191900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-191300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-186900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-186700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-186400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-188700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-171100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-202500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-201900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-201300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-182300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-181500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-181400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-181700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-165400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-164900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-172700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-173600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-185400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-174400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-472500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>147900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-185200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1562700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>931900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>288100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>123900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-153300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>146900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-344000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>406800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>931700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-283800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-346500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-875300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E101" s="3">
         <v>10000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-43100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>20600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-22500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>16600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>16900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E102" s="3">
         <v>425400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2423400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1368500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-283600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>778400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>814100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>77000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-98500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>62100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>179500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-113700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-216000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>119800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-980900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>873300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>68700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-622700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>488800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44191</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3624400</v>
+      </c>
+      <c r="E8" s="3">
         <v>3198200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2194600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2582700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2971500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2608300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1076300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1439100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3155700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3179800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2050700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1682700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3227700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3219400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2137100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3045400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3361100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3508800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2359600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2500300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2743500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1592500</v>
+      </c>
+      <c r="E9" s="3">
         <v>1479300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>954200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1232100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1322500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1279200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>493000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>539800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2851900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3052600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1931000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2202100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3337700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3494100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2385600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1504000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1617900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1750800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1187400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1243900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1362400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2031900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1718900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1240400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1350600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1649000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1329100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>583300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>899300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>303800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>127200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-519400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-110000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-274700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-248500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1541400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1743200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1758000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1172200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1256400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1381100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,76 +1142,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3500</v>
       </c>
-      <c r="E14" s="3">
-        <v>13000</v>
-      </c>
       <c r="F14" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G14" s="3">
         <v>55400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>38200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>407100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>131000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>77500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>57800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14900</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>104700</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X14" s="3">
         <v>79600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2949600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2639700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1991700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2460200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2559500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2288400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1323100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1864200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2615700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2631200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1954700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1671400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2712100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2706700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2024000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2734100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2801500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3024900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2191600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2210700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2489800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>674800</v>
+      </c>
+      <c r="E18" s="3">
         <v>558500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>202900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>122500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>412000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>319900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-246800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-425100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>540000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>548600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>11300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>515600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>512700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>113100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>311300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>559600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>483900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>168000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>289600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>253700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,348 +1479,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>9100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>11100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-36900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-46100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>34200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>740400</v>
+      </c>
+      <c r="E21" s="3">
         <v>634100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>282100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>191500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>486700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>403600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-220700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-407900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>428400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>734000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>289400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>121800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>585700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>590900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>148700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>390100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>648300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>563900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>235400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>359500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>332900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E22" s="3">
         <v>35900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>34900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>29300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>26800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>44600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>41600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>24100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>28300</v>
       </c>
       <c r="P22" s="3">
         <v>28300</v>
       </c>
       <c r="Q22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="R22" s="3">
         <v>27000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>27000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>27100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>23700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>24300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>641300</v>
+      </c>
+      <c r="E23" s="3">
         <v>531700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>179200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>89000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>386700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>293700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-312900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-497900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>530400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>85900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>494600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>486200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>68800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>294100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>538400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>461100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>145800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>269400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>232500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E24" s="3">
         <v>67600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>25200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>59000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>50400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-35200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>165500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>79000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-95000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>75100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>54300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>38100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>68000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>74300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>30900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>56100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>17300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>517800</v>
+      </c>
+      <c r="E26" s="3">
         <v>464100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>154000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>61700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>327700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>243200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-277700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-663400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>421600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>625400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>65300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>419500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>431900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>58500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>256100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>470400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>386800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>114900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>213300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>215200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>517800</v>
+      </c>
+      <c r="E27" s="3">
         <v>464100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>154000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>61700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>327700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>243200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-277700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-663400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>421600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>625400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>65300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>419500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>431900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>58500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>256100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>470400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>386800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>114900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>213300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>215200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,76 +2116,82 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>170300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>27800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>19600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>13500</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-7900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>179700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>43400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>23600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-16100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>131100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>44000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>75200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>101900</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-3300</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-560700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-5000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-4100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>49100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-9100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-11100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>36900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>46100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-34200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>517800</v>
+      </c>
+      <c r="E33" s="3">
         <v>464100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>324200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>89500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>347200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>256700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-285600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-483800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>465000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>649000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>49200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>128800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>463500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>507100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>160400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>252800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-90300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>386100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>109900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>209200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>264300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>517800</v>
+      </c>
+      <c r="E35" s="3">
         <v>464100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>324200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>89500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>347200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>256700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-285600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-483800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>465000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>649000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>49200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>128800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>463500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>507100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>160400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>252800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-90300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>386100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>109900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>209200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>264300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44191</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1333800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1360100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1274900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>815800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3254200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1877400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2145100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1369000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>584000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>507600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>606100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>445100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>535300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>352800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>467900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>680800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>563500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1546100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>672500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>603300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1227900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2737,22 +2826,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>598800</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>598800</v>
       </c>
       <c r="G42" s="3">
+        <v>598800</v>
+      </c>
+      <c r="H42" s="3">
         <v>599400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>800000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>700000</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2769,8 +2858,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2796,280 +2885,295 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1497300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1789100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1139900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1298900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1413100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1609100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>937500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1309200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1643500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1978600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1307800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1468400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1777800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2199400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1431500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1408600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1430000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1851400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1155700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1241500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1148800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1287200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1464700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1216800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1061800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1076000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1434800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1402900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1293900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1565000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1890700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1665100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1432700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1866100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2247900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1993800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1861400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1706600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1909600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1713000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1593400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1424600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>482300</v>
+      </c>
+      <c r="E45" s="3">
         <v>355900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>333600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1010600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>942500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>958900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1075700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1054800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>363200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>398300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>411800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1327300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>432900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>617800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>436900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>732500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>677700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>320300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>356500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>654000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>491900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4600600</v>
+      </c>
+      <c r="E46" s="3">
         <v>4969900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4564100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4785900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7285200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6680200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6261100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5027000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4155700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4775200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3990900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4673500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4612100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5418000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4330100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4683300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4377800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5627400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3897700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4092200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4293100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2352200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2391500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2443200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2450300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2432300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2319100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2311600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2227900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2207400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2135500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2146200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>915200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1041600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1035700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1018200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1011600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1014600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>921200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>919000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>897400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1822000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5419800</v>
+      </c>
+      <c r="E49" s="3">
         <v>5434000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5455200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5455000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3056300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3024600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3018400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3010600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3487800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3449200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3525100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3765400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3812100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3846900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4000400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3813300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4049900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3579400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3631700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4924300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5003000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1163700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1093700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1087800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1062900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>970500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>917300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>887900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>867800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>963400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>910500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>739800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1254500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>818500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>829900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>843000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>803000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>783700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>746900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>725400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1146500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1461600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13536300</v>
+      </c>
+      <c r="E54" s="3">
         <v>13889100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13550400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13754000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13744300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12941300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12479000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11133300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10814300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11270400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10402000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10356800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10284300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11130400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10191800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10311300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9958500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10874900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9173700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9246300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9739300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>559700</v>
+      </c>
+      <c r="E57" s="3">
         <v>534400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>534800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>463200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>412300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>450100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>348900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>407000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>457000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>550700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>588400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>580900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>645700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>732500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>675600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>583000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>761000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>554100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>502900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>425900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>620200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>606900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1011200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1009100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1229800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>60700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>489300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>72700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>669600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>683500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1576400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1323100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1531400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>741700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2239100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1174900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>542400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>279700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2057200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1838800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1527500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1735200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1784900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1620100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1346300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1387000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1444400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1364300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1286000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1416400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1233900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1199800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>996900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1024500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1247600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1028200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>753300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>867600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>885500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3223900</v>
+      </c>
+      <c r="E60" s="3">
         <v>3384400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3071400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2210500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2498000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2084500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1715500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3023900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1962100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2404300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1947100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2661600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2563000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3508700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2995600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3138800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2744100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3821400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2431100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1835900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1785400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4646400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4682800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4726200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5709100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5786600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5679400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5609800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2608300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2110500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2090900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2126800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2115900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2135200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2150600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2156600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2212600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2187800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2144200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2111600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2051500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2039200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2012700</v>
+      </c>
+      <c r="E62" s="3">
         <v>2223500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2478600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2778200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2321600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2232100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2241200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2143800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2174100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2127500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2176400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1280800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1285400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1291600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1308500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1271800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1306700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>971900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>986600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>985900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>973800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9882900</v>
+      </c>
+      <c r="E66" s="3">
         <v>10290600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10276300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10697900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10606200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9996000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9566400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>7775900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6246700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6622700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6250400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6058300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5983700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6950900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6460600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6623200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6238600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6937500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5529400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4873200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4798400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>608700</v>
+      </c>
+      <c r="E72" s="3">
         <v>586400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>317100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>189500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>300500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-298100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>7300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1182200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1406000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>931100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1179600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1258300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1147800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>825800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>846100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1023700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1297000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1077700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1892300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2545500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3653400</v>
+      </c>
+      <c r="E76" s="3">
         <v>3598500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3274000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3056200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3138200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2945200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2912600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3357300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4567600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4647600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4151600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4298500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4300600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4179600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3731100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3688100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3719900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3937400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3644300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4373100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4940900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44191</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>517800</v>
+      </c>
+      <c r="E81" s="3">
         <v>464100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>324200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>89500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>347200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>256700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-285600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-483800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>465000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>649000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>49200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>128800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>463500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>507100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>160400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>252800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-90300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>386100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>109900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>209200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>264300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5414,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E83" s="3">
         <v>66500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>68100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>64500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>75800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>63000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>63300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>-116800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>162000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>159200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>84600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>71400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>73900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>71100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>71500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>82900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>75700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>65500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>66400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>76100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>968500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-252100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>81000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>171200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1059200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>86000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1207100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-299300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-66200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>227600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1333700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-174200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>277100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-243200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1468000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>205600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-210200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1433400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-51400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-93200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-46200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-39900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-43300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-101900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-77700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-70400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-50700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-67100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-62500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-54400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-46200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-61500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-116600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-98900</v>
+      </c>
+      <c r="E94" s="3">
         <v>543500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>508800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2078900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>140700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-172200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-785200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-128100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-76800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-72100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>69800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-129200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-56000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-801300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-64000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>157500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-68300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-61600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,76 +6249,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-194800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-192300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-192100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-191900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-191300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-186900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-186700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-186400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-188700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-171100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-202500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-201900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-201300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-182300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-181500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-181400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-181700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-165400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-164900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-172700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-173600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-897800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-185400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-174400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-472500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>147900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-185200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1562700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>931900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>288100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>123900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-153300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>146900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-344000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>406800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>931700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-283800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-346500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-875300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-21000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-43100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>20600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-22500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>5100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>16600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>16900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E102" s="3">
         <v>85000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>425400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2423400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1368500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-283600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>778400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>814100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-98500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>62100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>17700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>179500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-113700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-216000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>119800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-980900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>873300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>68700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-622700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>488800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,343 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44191</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2261600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2824700</v>
+      </c>
+      <c r="F8" s="3">
         <v>3624400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3198200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2194600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2582700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2971500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>2608300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1076300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1439100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3155700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3179800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2050700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1682700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3227700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3219400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2137100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3045400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3361100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3508800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2359600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2500300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2743500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1041600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1358700</v>
+      </c>
+      <c r="F9" s="3">
         <v>1592500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1479300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>954200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1232100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1322500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1279200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>493000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>539800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2851900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3052600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1931000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2202100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3337700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3494100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2385600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1504000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1617900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1750800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1187400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1243900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1362400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1466000</v>
+      </c>
+      <c r="F10" s="3">
         <v>2031900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1718900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1240400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1350600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1649000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1329100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>583300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>899300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>303800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>127200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>119700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-519400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-110000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-274700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-248500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1541400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1743200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1758000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1172200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1256400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1381100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1027,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1100,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,79 +1177,91 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F14" s="3">
         <v>7200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>4300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>55400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>38200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>23400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>22500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>407100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>28800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>4800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>131000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>77500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>57800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>10700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>14900</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U14" s="3">
-        <v>104700</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>104700</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14" s="3">
         <v>79600</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1331,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1361,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2198200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2632300</v>
+      </c>
+      <c r="F17" s="3">
         <v>2949600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2639700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1991700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2460200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2559500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2288400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1323100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1864200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2615700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2631200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1954700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1671400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2712100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2706700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2024000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2734100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2801500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3024900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2191600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2210700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2489800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>192400</v>
+      </c>
+      <c r="F18" s="3">
         <v>674800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>558500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>202900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>122500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>412000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>319900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-246800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-425100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>540000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>548600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>96000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>11300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>515600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>512700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>113100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>311300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>559600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>483900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>168000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>289600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>253700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,363 +1544,395 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-93400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>9100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>11100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>4500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>9100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>7800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-36900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-46100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>5100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>23400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>34200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-17200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>7200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>5800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>4300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>3500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>3100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>270100</v>
+      </c>
+      <c r="F21" s="3">
         <v>740400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>634100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>282100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>191500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>486700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>403600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-220700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-407900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>428400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>734000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>289400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>121800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>585700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>590900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>148700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>390100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>648300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>563900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>235400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>359500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>332900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>31700</v>
+      </c>
+      <c r="F22" s="3">
         <v>34000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>35900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>34900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>38000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>34300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>34100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>29300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>26800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>44600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>41600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>44300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>24100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>28300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>28300</v>
-      </c>
-      <c r="R22" s="3">
-        <v>27000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>24400</v>
       </c>
       <c r="T22" s="3">
         <v>27000</v>
       </c>
       <c r="U22" s="3">
+        <v>24400</v>
+      </c>
+      <c r="V22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="W22" s="3">
         <v>27100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>24200</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>23700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>24300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-62600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>171100</v>
+      </c>
+      <c r="F23" s="3">
         <v>641300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>531700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>179200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>89000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>386700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>293700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-312900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-497900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>530400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>85900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>494600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>486200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>68800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>294100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>538400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>461100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>145800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>269400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>232500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>90700</v>
+      </c>
+      <c r="F24" s="3">
         <v>123500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>67600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>25200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>27300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>59000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>50400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-35200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>165500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>79000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-95000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>20700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-9000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>75100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>54300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>10400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>38100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>68000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>74300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>30900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>56100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>17300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +2002,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>80400</v>
+      </c>
+      <c r="F26" s="3">
         <v>517800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>464100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>154000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>61700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>327700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>243200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-277700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-663400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>421600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>625400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>65300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>419500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>431900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>58500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>256100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>470400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>386800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>114900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>213300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>215200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>80400</v>
+      </c>
+      <c r="F27" s="3">
         <v>517800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>464100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>154000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>61700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>327700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>243200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-277700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-663400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>421600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>625400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>65300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>419500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>431900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>58500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>256100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>470400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>386800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>114900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>213300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>215200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,79 +2233,91 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>400</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>170300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>27800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>19600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>13500</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-7900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>179700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>43400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>23600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-16100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>131100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>44000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>75200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>101900</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-3300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>-560700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-600</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-5000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-4100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>49100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2387,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2464,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-9100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-11100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-4500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-9100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-7800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>36900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>46100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-5100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-23400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-34200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>17200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-7200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-5800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-4300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-3500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F33" s="3">
         <v>517800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>464100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>324200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>89500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>347200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>256700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-285600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-483800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>465000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>649000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>49200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>128800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>463500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>507100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>160400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>252800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-90300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>386100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>109900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>209200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>264300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2695,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F35" s="3">
         <v>517800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>464100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>324200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>89500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>347200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>256700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-285600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-483800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>465000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>649000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>49200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>128800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>463500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>507100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>160400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>252800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-90300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>386100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>109900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>209200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>264300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44191</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2887,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2916,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1275900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1333800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1360100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1274900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>815800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>3254200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1877400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2145100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1369000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>584000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>507600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>606100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>445100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>535300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>352800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>467900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>680800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>563500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1546100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>672500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>603300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1227900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2829,25 +3007,25 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>598800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>598800</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>599400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>800000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>700000</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -2861,11 +3039,11 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2888,292 +3066,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1251700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1468900</v>
+      </c>
+      <c r="F43" s="3">
         <v>1497300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1789100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1139900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1298900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1413100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1609100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>937500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1309200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1643500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1978600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1307800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1468400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1777800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2199400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1431500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1408600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1430000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1851400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1155700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1241500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1148800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2341400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1418700</v>
+      </c>
+      <c r="F44" s="3">
         <v>1287200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1464700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1216800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1061800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1076000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1434800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1402900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1293900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1565000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1890700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1665100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1432700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1866100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>2247900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1993800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1861400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1706600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1909600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1713000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1593400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1424600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>490500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>424600</v>
+      </c>
+      <c r="F45" s="3">
         <v>482300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>355900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>333600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1010600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>942500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>958900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1075700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1054800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>363200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>398300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>411800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1327300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>432900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>617800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>436900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>732500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>677700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>320300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>356500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>654000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>491900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4611700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4588100</v>
+      </c>
+      <c r="F46" s="3">
         <v>4600600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4969900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4564100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4785900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7285200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6680200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6261100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5027000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4155700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>4775200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3990900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4673500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4612100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>5418000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4330100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4683300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4377800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5627400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3897700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4092200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4293100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3243,150 +3451,168 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2235300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2288800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2352200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2391500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2443200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2450300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2432300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2319100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2311600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2227900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2207400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2135500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2146200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>915200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1041600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>1035700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>1018200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>1011600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1014600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>921200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>919000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>897400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1822000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5343700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>5394200</v>
+      </c>
+      <c r="F49" s="3">
         <v>5419800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>5434000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5455200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5455000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>3056300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>3024600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3018400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3010600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3487800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3449200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3525100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3765400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3812100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3846900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>4000400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3813300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>4049900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3579400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>3631700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>4924300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>5003000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3682,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3759,91 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1071100</v>
+      </c>
+      <c r="F52" s="3">
         <v>1163700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1093700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1087800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1062900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>970500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>917300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>887900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>867800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>963400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>910500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>739800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1254500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>818500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>829900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>843000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>803000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>783700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>746900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>725400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1146500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>1461600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3913,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13211800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13342200</v>
+      </c>
+      <c r="F54" s="3">
         <v>13536300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13889100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13550400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13754000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13744300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12941300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12479000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11133300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10814300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>11270400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10402000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10356800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10284300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11130400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10191800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10311300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>9958500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10874900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>9173700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>9246300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>9739300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +4023,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +4052,472 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1022800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>563000</v>
+      </c>
+      <c r="F57" s="3">
         <v>559700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>534400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>534800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>463200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>412300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>450100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>348900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>407000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>457000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>550700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>588400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>580900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>645700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>732500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>675600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>583000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>761000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>554100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>502900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>425900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>620200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>828400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>836500</v>
+      </c>
+      <c r="F58" s="3">
         <v>606900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1011200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1009100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>12100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>14400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>20300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1229800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>60700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>489300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>72700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>669600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>683500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1576400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1323100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1531400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>741700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2239100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1174900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>542400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>279700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1612800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1915900</v>
+      </c>
+      <c r="F59" s="3">
         <v>2057200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1838800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1527500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1735200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1784900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1620100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1346300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1387000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1444400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1364300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1286000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1416400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1233900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1199800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>996900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1024500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1247600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1028200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>753300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>867600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>885500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3464000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3315400</v>
+      </c>
+      <c r="F60" s="3">
         <v>3223900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3384400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3071400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2210500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2498000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2084500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1715500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3023900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1962100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2404300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1947100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2661600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2563000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3508700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2995600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3138800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2744100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3821400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2431100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1835900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1785400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4468400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4584300</v>
+      </c>
+      <c r="F61" s="3">
         <v>4646400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4682800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4726200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5709100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5786600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5679400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5609800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2608300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2110500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2090900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2126800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2115900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2135200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2150600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2156600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2212600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2187800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2144200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2111600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2051500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2039200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1926900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1912200</v>
+      </c>
+      <c r="F62" s="3">
         <v>2012700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2223500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2478600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2778200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2321600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2232100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2241200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2143800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2174100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2127500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2176400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1280800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1285400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1291600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1308500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1271800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1306700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>971900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>986600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>985900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>973800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4587,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4664,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4741,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9859300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9811900</v>
+      </c>
+      <c r="F66" s="3">
         <v>9882900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10290600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>10276300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10697900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10606200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>9996000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>9566400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7775900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6246700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6622700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6250400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6058300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5983700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6950900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6460600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6623200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6238600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6937500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5529400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4873200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4798400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4851,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4924,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +5001,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +5078,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +5155,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>188800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>443500</v>
+      </c>
+      <c r="F72" s="3">
         <v>608700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>586400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>317100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>189500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>300500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-45000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-298100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1182200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1406000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>931100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1179600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1258300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1147800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>825800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>846100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1023700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1297000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1077700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1892300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>2545500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5309,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5386,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5463,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3352500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3530400</v>
+      </c>
+      <c r="F76" s="3">
         <v>3653400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3598500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3274000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3056200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3138200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2945200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2912600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3357300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4567600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4647600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4151600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4298500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4300600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4179600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>3731100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>3688100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>3719900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>3937400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3644300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4373100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4940900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5617,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44191</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-56000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>80800</v>
+      </c>
+      <c r="F81" s="3">
         <v>517800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>464100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>324200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>89500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>347200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>256700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-285600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-483800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>465000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>649000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>49200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>128800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>463500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>507100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>160400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>252800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-90300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>386100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>109900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>209200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>264300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5809,87 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>67300</v>
+      </c>
+      <c r="F83" s="3">
         <v>65100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>66500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>68100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>64500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>65700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>75800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>63000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>63300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>-116800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>162000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>159200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>84600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>71400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>73900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>71100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>71500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>82900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>75700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>65500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>66400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>76100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5959,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +6036,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +6113,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +6190,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6267,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-358300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>66900</v>
+      </c>
+      <c r="F89" s="3">
         <v>968500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-252100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>81000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>171200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1059200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>86000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>32900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1207100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-299300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-66200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>227600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1333700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-174200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>277100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-243200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1468000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>11200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>205600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-210200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1433400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,79 +6377,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-31200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-69600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-51400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-93200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-46200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-39900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-43300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-69200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-101900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-77700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-62300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-46300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-70400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-50700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-67100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-62500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-54400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-45200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-46200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-37400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-61500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-116600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6527,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6604,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-69500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-49700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-98900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>543500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>508800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2078900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>140700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-172200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-785200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-128100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-96500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-76800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-72100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>69800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-89100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-129200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-56000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-801300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-64000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>157500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-68300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-61600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,79 +6714,87 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-194100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-194000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-194800</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-192300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-192100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-191900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-191300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-186900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-186700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-186400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-188700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-171100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-202500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-201900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-201300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-182300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-181500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-181400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-181700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-165400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-164900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-172700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-173600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6864,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6941,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +7018,241 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-261200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-897800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-185400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-174400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-472500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>147900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-185200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1562700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>931900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>288100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>123900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-153300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>146900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-344000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>406800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>931700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-283800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-346500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-875300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-64000</v>
+      </c>
+      <c r="F101" s="3">
         <v>1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-21000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>10000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-43100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>20600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-12200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-22500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-10500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>5100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>15500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>16600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>2700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>12200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>16900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-5600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-10600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>2200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-748000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-26600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>85000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>425400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-2423400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1368500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-283600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>778400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>814100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>77000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-98500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>62100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>17700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>179500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-113700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-216000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>119800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-980900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>873300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>68700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-622700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>488800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,355 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44191</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3080600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2261600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2824700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3624400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3198200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2194600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2582700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2971500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2608300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1076300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1439100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3155700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3179800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2050700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1682700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3227700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3219400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2137100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3045400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3361100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3508800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2359600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2500300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2743500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1496200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1041600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1358700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1592500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1479300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>954200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1232100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1322500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1279200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>493000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>539800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2851900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3052600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1931000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2202100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3337700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3494100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2385600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1504000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1617900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1750800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1187400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1243900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1362400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1584400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1220000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1466000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2031900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1718900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1240400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1350600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1649000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1329100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>583300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>899300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>303800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>127200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-519400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-110000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-274700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-248500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1541400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1743200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1758000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1172200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1256400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1381100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1041,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,8 +1119,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,85 +1199,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>467700</v>
+      </c>
+      <c r="E14" s="3">
         <v>6100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>55400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>38200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>407100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>4800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>131000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>77500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>57800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14900</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>104700</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA14" s="3">
         <v>79600</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1337,8 +1359,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1388,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3171400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2198200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2632300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2949600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2639700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1991700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2460200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2559500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2288400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1323100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1864200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2615700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2631200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1954700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1671400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2712100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2706700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2024000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2734100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2801500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3024900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2191600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2210700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2489800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-90800</v>
+      </c>
+      <c r="E18" s="3">
         <v>63400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>192400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>674800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>558500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>202900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>122500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>412000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>319900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-246800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-425100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>540000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>548600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>96000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>11300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>515600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>512700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>113100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>311300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>559600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>483900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>168000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>289600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>253700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,393 +1578,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-93400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>10400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-36900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-46100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>23400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>34200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-17200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-35400</v>
+      </c>
+      <c r="E21" s="3">
         <v>36700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>270100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>740400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>634100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>282100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>191500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>486700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>403600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-220700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-407900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>428400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>734000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>289400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>121800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>585700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>590900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>148700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>390100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>648300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>563900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>235400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>359500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>332900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E22" s="3">
         <v>32500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>31700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>34000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>35900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>34900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>38000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>29300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>26800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>41600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>44300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>24100</v>
-      </c>
-      <c r="R22" s="3">
-        <v>28300</v>
       </c>
       <c r="S22" s="3">
         <v>28300</v>
       </c>
       <c r="T22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="U22" s="3">
         <v>27000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>27000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>27100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>24200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>23700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>24300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-62600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>171100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>641300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>531700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>179200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>89000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>386700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>293700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-312900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-497900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>530400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>85900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>494600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>486200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>68800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>294100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>538400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>461100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>145800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>269400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>232500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-6700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>90700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>123500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>67600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>25200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>59000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-35200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>165500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>79000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-95000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>75100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>54300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>68000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>74300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>30900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>56100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>17300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2056,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>80400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>517800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>464100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>154000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>61700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>327700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>243200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-277700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-663400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>421600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>625400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>65300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>419500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>431900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>58500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>256100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>470400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>386800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>114900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>213300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>215200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-56000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>80400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>517800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>464100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>154000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>61700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>327700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>243200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-277700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-663400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>421600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>625400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>65300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>419500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>431900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>58500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>256100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>470400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>386800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>114900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>213300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>215200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,85 +2296,91 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>400</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>170300</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>27800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>19600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>13500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-7900</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>179700</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>43400</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>23600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-16100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>131100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>44000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>75200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>101900</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-560700</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-4100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>49100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2456,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2536,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E32" s="3">
         <v>93400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-10400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>36900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>46100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-23400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-34200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>17200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-56000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>80800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>517800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>464100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>324200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>89500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>347200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>256700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-285600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-483800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>465000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>649000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>49200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>128800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>463500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>507100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>160400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>252800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-90300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>386100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>109900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>209200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>264300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2776,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-56000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>80800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>517800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>464100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>324200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>89500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>347200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>256700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-285600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-483800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>465000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>649000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>49200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>128800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>463500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>507100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>160400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>252800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-90300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>386100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>109900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>209200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>264300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44191</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2973,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,90 +3003,94 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>552800</v>
+      </c>
+      <c r="E41" s="3">
         <v>528000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1275900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1333800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1360100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1274900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>815800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3254200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1877400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2145100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1369000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>584000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>507600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>606100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>445100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>535300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>352800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>467900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>680800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>563500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1546100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>672500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>603300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1227900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -3013,22 +3102,22 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>598800</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>598800</v>
       </c>
       <c r="J42" s="3">
+        <v>598800</v>
+      </c>
+      <c r="K42" s="3">
         <v>599400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>800000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>700000</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
@@ -3045,8 +3134,8 @@
       <c r="R42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -3072,316 +3161,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1837400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1251700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1468900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1497300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1789100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1139900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1298900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1413100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1609100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>937500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1309200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1643500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1978600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1307800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1468400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1777800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2199400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1431500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1408600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1430000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1851400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1155700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1241500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1148800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2749900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2341400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1418700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1287200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1464700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1216800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1061800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1076000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1434800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1402900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1293900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1565000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1890700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1665100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1432700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1866100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2247900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1993800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1861400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1706600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1909600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1713000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1593400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1424600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>548200</v>
+      </c>
+      <c r="E45" s="3">
         <v>490500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>424600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>482300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>355900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>333600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1010600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>942500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>958900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1075700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1054800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>363200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>398300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>411800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1327300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>432900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>617800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>436900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>732500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>677700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>320300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>356500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>654000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>491900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5688200</v>
+      </c>
+      <c r="E46" s="3">
         <v>4611700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4588100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4600600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4969900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4564100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4785900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7285200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6680200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6261100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5027000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4155700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4775200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3990900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4673500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4612100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5418000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4330100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4683300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4377800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5627400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3897700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4092200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4293100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3457,162 +3561,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2201300</v>
+      </c>
+      <c r="E48" s="3">
         <v>2235300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2288800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2352200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2391500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2443200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2450300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2432300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2319100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2311600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2227900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2207400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2135500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2146200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>915200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1041600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1035700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1018200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1011600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1014600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>921200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>919000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>897400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1822000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4878700</v>
+      </c>
+      <c r="E49" s="3">
         <v>5343700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5394200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5419800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5434000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5455200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5455000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3056300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3024600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3018400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3010600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3487800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3449200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3525100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3765400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3812100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3846900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4000400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3813300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>4049900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3579400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3631700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>4924300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5003000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3801,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,85 +3881,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1015900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1021000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1071100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1163700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1093700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1087800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1062900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>970500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>917300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>887900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>867800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>963400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>910500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>739800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1254500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>818500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>829900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>843000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>803000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>783700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>746900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>725400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1146500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1461600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,85 +4041,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13784100</v>
+      </c>
+      <c r="E54" s="3">
         <v>13211800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13342200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13536300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13889100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13550400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13754000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13744300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12941300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12479000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11133300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10814300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11270400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10402000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10356800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10284300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11130400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10191800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10311300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9958500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10874900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9173700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9246300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9739300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4153,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,470 +4183,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1022400</v>
+      </c>
+      <c r="E57" s="3">
         <v>1022800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>563000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>559700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>534400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>534800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>463200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>412300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>450100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>348900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>407000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>457000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>550700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>588400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>580900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>645700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>732500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>675600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>583000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>761000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>554100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>502900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>425900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>620200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2524900</v>
+      </c>
+      <c r="E58" s="3">
         <v>828400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>836500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>606900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1011200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1009100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1229800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>60700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>489300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>72700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>669600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>683500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1576400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1323100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1531400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>741700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2239100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1174900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>542400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>279700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1798700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1612800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1915900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2057200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1838800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1527500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1735200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1784900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1620100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1346300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1387000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1444400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1364300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1286000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1416400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1233900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1199800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>996900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1024500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1247600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1028200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>753300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>867600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>885500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5346000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3464000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3315400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3223900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3384400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3071400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2210500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2498000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2084500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1715500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3023900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1962100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2404300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1947100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2661600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2563000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3508700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2995600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3138800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2744100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3821400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2431100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1835900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1785400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3526100</v>
+      </c>
+      <c r="E61" s="3">
         <v>4468400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4584300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4646400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4682800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4726200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5709100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5786600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5679400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5609800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2608300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2110500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2090900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2126800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2115900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2135200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2150600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2156600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2212600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2187800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2144200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2111600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2051500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2039200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1826400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1926900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1912200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2012700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2223500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2478600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2778200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2321600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2232100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2241200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2143800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2174100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2127500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2176400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1280800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1285400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1291600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1308500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1271800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1306700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>971900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>986600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>985900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>973800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4741,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4821,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,85 +4901,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10698500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9859300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9811900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9882900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10290600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10276300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10697900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10606200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9996000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9566400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7775900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6246700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6622700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6250400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6058300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5983700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6950900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6460600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6623200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6238600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6937500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5529400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4873200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4798400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5013,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5091,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5171,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5251,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,85 +5331,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="E72" s="3">
         <v>188800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>443500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>608700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>586400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>317100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>189500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>300500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-298100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1182200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1406000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>931100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1179600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1258300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1147800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>825800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>846100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1023700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1297000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1077700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1892300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2545500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5491,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5571,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,85 +5651,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3085600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3352500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3530400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3653400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3598500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3274000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3056200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3138200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2945200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2912600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3357300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4567600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4647600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4151600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4298500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4300600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4179600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3731100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3688100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3719900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3937400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3644300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4373100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4940900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5811,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44191</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-118400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-56000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>80800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>517800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>464100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>324200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>89500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>347200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>256700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-285600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-483800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>465000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>649000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>49200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>128800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>463500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>507100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>160400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>252800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-90300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>386100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>109900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>209200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>264300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6008,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E83" s="3">
         <v>66800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>67300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>65100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>66500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>68100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>64500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>75800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>63000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>-116800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>162000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>159200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>84600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>71400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>73900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>71100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>71500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>82900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>75700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>65500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>66400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>76100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6166,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6246,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6326,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6406,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6486,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-555600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-358300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>66900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>968500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-252100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>81000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>171200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1059200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>86000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>32900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1207100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-299300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-66200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>227600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1333700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-174200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>277100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-243200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1468000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>205600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-210200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1433400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6598,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-69600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-51400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-93200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-46200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-39900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-43300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-101900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-77700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-62300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-70400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-50700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-67100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-62500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-54400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-45200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-46200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-37400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-61500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-116600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6756,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6836,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-69500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-98900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>543500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>508800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2078900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>140700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-172200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-785200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-128100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-96500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-76800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-72100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>69800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-89100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-129200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-56000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-801300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-64000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>157500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-68300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-61600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,8 +6948,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6725,76 +6958,79 @@
         <v>-194100</v>
       </c>
       <c r="E96" s="3">
+        <v>-194100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-194000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-194800</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-192300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-192100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-191900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-191300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-186900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-186700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-186400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-188700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-171100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-202500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-201900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-201300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-182300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-181500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-181400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-181700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-165400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-164900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-172700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-173600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7106,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7186,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,235 +7266,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>670000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-261200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-897800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-185400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-174400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-472500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>147900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-185200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1562700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>931900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>288100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>123900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-153300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>146900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-344000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>406800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>931700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-283800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-346500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-875300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-59000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-64000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-21000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-43100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>20600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-22500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>15500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>16600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-20000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>16900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-10600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-748000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-57900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-26600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>85000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>425400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2423400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1368500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-283600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>778400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>814100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>77000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-98500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>62100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>17700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>179500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-113700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-216000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>119800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-980900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>873300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>68700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-622700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>488800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,355 +665,368 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44191</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3530700</v>
+      </c>
+      <c r="E8" s="3">
         <v>3080600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2261600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2824700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3624400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3198200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2194600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2582700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2971500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2608300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1076300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1439100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3155700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3179800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2050700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1682700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3227700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3219400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2137100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3045400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3361100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3508800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2359600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2500300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2743500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1592300</v>
+      </c>
+      <c r="E9" s="3">
         <v>1496200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1041600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1358700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1592500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1479300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>954200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1232100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1322500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1279200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>493000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>539800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2851900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3052600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1931000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2202100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3337700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3494100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2385600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1504000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1617900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1750800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1187400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1243900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1362400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1938400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1584400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1220000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1466000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2031900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1718900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1240400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1350600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1649000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1329100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>583300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>899300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>303800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>127200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>119700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-519400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-110000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-274700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-248500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1541400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1743200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1758000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1172200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1256400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1381100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,8 +1055,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1122,8 +1136,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1202,88 +1219,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E14" s="3">
         <v>467700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>55400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>407100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>28800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>131000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>77500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>57800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14900</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>104700</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB14" s="3">
         <v>79600</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1362,8 +1385,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1389,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3014600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3171400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2198200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2632300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2949600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2639700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1991700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2460200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2559500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2288400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1323100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1864200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2615700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2631200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1954700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1671400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2712100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2706700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2024000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2734100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2801500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3024900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2191600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2210700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2489800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>516100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-90800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>192400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>674800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>558500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>202900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>122500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>412000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>319900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-246800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-425100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>540000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>548600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>96000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>11300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>515600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>512700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>113100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>311300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>559600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>483900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>168000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>289600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>253700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1579,408 +1612,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-93400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>10400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-36900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-46100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>23400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>34200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-17200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>571600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-35400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>36700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>270100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>740400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>634100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>282100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>191500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>486700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>403600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-220700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-407900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>428400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>734000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>289400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>121800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>585700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>590900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>148700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>390100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>648300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>563900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>235400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>359500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>332900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E22" s="3">
         <v>34700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>32500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>31700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>35900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>34900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>29300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>26800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>44600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>41600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>44300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>24100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>28300</v>
       </c>
       <c r="T22" s="3">
         <v>28300</v>
       </c>
       <c r="U22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="V22" s="3">
         <v>27000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>24400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>27000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>27100</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>24200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>23700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>24300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>455900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-134000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-62600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>171100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>641300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>531700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>179200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>89000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>386700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>293700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-312900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-497900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>530400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>85900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>494600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>486200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>68800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>294100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>538400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>461100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>145800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>269400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>232500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-15600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-6700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>90700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>123500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>67600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>25200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>59000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-35200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>165500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>79000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>75100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>54300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>38100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>68000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>74300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>30900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>56100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>17300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2059,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>507900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-118400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-56000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>80400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>517800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>464100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>154000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>61700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>327700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>243200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-277700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-663400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>421600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>625400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>419500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>431900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>58500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>256100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>470400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>386800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>114900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>213300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>215200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>507900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-118400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-56000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>80400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>517800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>464100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>154000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>61700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>327700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>243200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-277700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-663400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>421600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>625400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>65300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>419500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>431900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>58500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>256100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>470400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>386800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>114900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>213300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>215200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2299,88 +2357,94 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>400</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>170300</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>27800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>19600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>13500</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-7900</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>179700</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>43400</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>23600</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-16100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>131100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>44000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>75200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>101900</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-560700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-600</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-4100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>49100</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2539,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>8500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>93400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-10400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>36900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>46100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-23400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-34200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>17200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>507900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-118400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-56000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>80800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>517800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>464100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>324200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>89500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>347200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>256700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-285600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-483800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>465000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>649000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>49200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>128800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>463500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>507100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>160400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>252800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-90300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>386100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>109900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>209200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>264300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2779,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>507900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-118400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-56000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>80800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>517800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>464100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>324200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>89500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>347200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>256700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-285600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-483800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>465000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>649000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>49200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>128800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>463500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>507100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>160400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>252800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-90300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>386100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>109900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>209200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>264300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44191</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2974,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3004,96 +3090,100 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>571300</v>
+      </c>
+      <c r="E41" s="3">
         <v>552800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>528000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1275900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1333800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1360100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1274900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>815800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3254200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1877400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2145100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1369000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>584000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>507600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>606100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>445100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>535300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>352800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>467900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>680800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>563500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1546100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>672500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>603300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1227900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3105,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>598800</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
         <v>598800</v>
       </c>
       <c r="K42" s="3">
+        <v>598800</v>
+      </c>
+      <c r="L42" s="3">
         <v>599400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>800000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>700000</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>8</v>
@@ -3137,8 +3227,8 @@
       <c r="S42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3164,328 +3254,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1566200</v>
+      </c>
+      <c r="E43" s="3">
         <v>1837400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1251700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1468900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1497300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1789100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1139900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1298900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1413100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1609100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>937500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1309200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1643500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1978600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1307800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1468400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1777800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2199400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1431500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1408600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1430000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1851400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1155700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1241500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1148800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2591900</v>
+      </c>
+      <c r="E44" s="3">
         <v>2749900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2341400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1418700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1287200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1464700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1216800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1061800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1076000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1434800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1402900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1293900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1565000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1890700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1665100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1432700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1866100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2247900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1993800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1861400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1706600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1909600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1713000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1593400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1424600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>514500</v>
+      </c>
+      <c r="E45" s="3">
         <v>548200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>490500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>424600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>482300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>355900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>333600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1010600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>942500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>958900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1075700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1054800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>363200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>398300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>411800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1327300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>432900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>617800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>436900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>732500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>677700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>320300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>356500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>654000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>491900</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5244000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5688200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4611700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4588100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4600600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4969900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4564100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4785900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7285200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6680200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6261100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5027000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4155700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4775200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3990900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4673500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4612100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5418000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4330100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4683300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4377800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5627400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3897700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4092200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4293100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3564,168 +3669,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2225700</v>
+      </c>
+      <c r="E48" s="3">
         <v>2201300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2235300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2288800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2352200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2391500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2443200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2450300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2432300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2319100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2311600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2227900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2207400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2135500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2146200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>915200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1041600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1035700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1018200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1011600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1014600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>921200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>919000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>897400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1822000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4932900</v>
+      </c>
+      <c r="E49" s="3">
         <v>4878700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>5343700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5394200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5419800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5434000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5455200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5455000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3056300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3024600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3018400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3010600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3487800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3449200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3525100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3765400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3812100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3846900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>4000400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3813300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>4049900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3579400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3631700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4924300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5003000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3804,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3884,88 +4001,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1910700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1015900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1021000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1071100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1163700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1093700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1087800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1062900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>970500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>917300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>887900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>867800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>963400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>910500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>739800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1254500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>818500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>829900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>843000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>803000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>783700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>746900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>725400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1146500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1461600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4044,88 +4167,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14313300</v>
+      </c>
+      <c r="E54" s="3">
         <v>13784100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13211800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13342200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13536300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13889100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13550400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13754000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13744300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12941300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12479000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11133300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10814300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11270400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10402000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10356800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10284300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11130400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10191800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10311300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9958500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10874900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9173700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9246300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>9739300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4154,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4184,488 +4314,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>906300</v>
+      </c>
+      <c r="E57" s="3">
         <v>1022400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1022800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>563000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>559700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>534400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>534800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>463200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>412300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>450100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>348900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>407000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>457000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>550700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>588400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>580900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>645700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>732500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>675600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>583000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>761000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>554100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>502900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>425900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>620200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1812300</v>
+      </c>
+      <c r="E58" s="3">
         <v>2524900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>828400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>836500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>606900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1011200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1009100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1229800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>60700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>489300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>72700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>669600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>683500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1576400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1323100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1531400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>741700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2239100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1174900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>542400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>279700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1827600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1798700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1612800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1915900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2057200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1838800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1527500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1735200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1784900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1620100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1346300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1387000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1444400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1364300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1286000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1416400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1233900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1199800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>996900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1024500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1247600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1028200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>753300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>867600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>885500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4546200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5346000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3464000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3315400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3223900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3384400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3071400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2210500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2498000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2084500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1715500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3023900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1962100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2404300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1947100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2661600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2563000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3508700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2995600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3138800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2744100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3821400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2431100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1835900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1785400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4617400</v>
+      </c>
+      <c r="E61" s="3">
         <v>3526100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4468400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4584300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4646400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4682800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4726200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5709100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5786600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5679400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5609800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2608300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2110500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2090900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2126800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2115900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2135200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2150600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2156600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2212600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2187800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2144200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2111600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2051500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2039200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1830000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1826400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1926900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1912200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2012700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2223500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2478600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2778200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2321600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2232100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2241200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2143800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2174100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2127500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2176400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1280800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1285400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1291600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1308500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1271800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1306700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>971900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>986600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>985900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>973800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4824,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4904,88 +5059,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10993700</v>
+      </c>
+      <c r="E66" s="3">
         <v>10698500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9859300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9811900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9882900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10290600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10276300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10697900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10606200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9996000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9566400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7775900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6246700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6622700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6250400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6058300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5983700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6950900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6460600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6623200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6238600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6937500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5529400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4873200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4798400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5014,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5094,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5174,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5254,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5334,88 +5505,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>385800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-120100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>188800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>443500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>608700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>586400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>317100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>189500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>300500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-298100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1182200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1406000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>931100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1179600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1258300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1147800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>825800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>846100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1023700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1297000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1077700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1892300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2545500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5494,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5574,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5654,88 +5837,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3319600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3085600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3352500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3530400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3653400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3598500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3274000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3056200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3138200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2945200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2912600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3357300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4567600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4647600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4151600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4298500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4300600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4179600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3731100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3688100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3719900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3937400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3644300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4373100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>4940900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5814,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44191</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>507900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-118400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-56000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>80800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>517800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>464100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>324200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>89500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>347200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>256700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-285600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-483800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>465000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>649000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>49200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>128800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>463500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>507100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>160400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>252800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-90300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>386100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>109900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>209200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>264300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6009,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E83" s="3">
         <v>63900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>66800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>67300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>65100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>66500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>68100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>64500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>65700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>75800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>63000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>63300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>-116800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>162000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>159200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>84600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>71400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>73900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>71100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>71500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>82900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>75700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>65500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>66400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>76100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6169,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6249,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6329,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6409,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6489,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-555600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-358300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>66900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>968500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-252100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>81000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>171200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1059200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>86000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>32900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1207100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-299300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-66200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>227600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1333700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-174200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>277100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-243200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1468000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>205600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-210200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1433400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6599,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-40300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-37300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-31200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-51400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-93200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-39900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-43300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-101900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-77700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-62300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-70400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-50700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-67100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-62500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-54400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-46200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-37400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-61500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-116600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6759,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6839,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-75100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-69500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-49700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-98900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>543500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>508800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2078900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>140700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-172200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-785200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-128100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-96500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-76800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-72100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>69800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-89100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-129200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-56000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-801300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-64000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>157500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-68300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-61600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6949,88 +7182,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-194100</v>
+        <v>-198100</v>
       </c>
       <c r="E96" s="3">
         <v>-194100</v>
       </c>
       <c r="F96" s="3">
+        <v>-194100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-194000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-194800</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-192300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-192100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-191900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-191300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-186900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-186700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-186400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-188700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-171100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-202500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-201900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-201300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-182300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-181500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-181400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-181700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-165400</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-164900</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-172700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-173600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7109,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7189,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7269,244 +7512,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>670000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-261200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-897800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-185400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-174400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-472500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>147900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-185200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1562700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>931900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>288100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>123900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-153300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>146900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-344000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>406800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>931700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-283800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-346500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-875300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-26900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-59000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-64000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-21000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-43100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>20600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>16600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-20000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>16900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-10600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E102" s="3">
         <v>25300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-748000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-57900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-26600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>85000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>425400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2423400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1368500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-283600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>778400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>814100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>77000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-98500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>62100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>17700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>179500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-113700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-216000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>119800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-980900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>873300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>68700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-622700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>488800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -6826,25 +6826,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40300</v>
+        <v>-67900</v>
       </c>
       <c r="E91" s="3">
-        <v>-37300</v>
+        <v>-58300</v>
       </c>
       <c r="F91" s="3">
-        <v>-52700</v>
+        <v>-79600</v>
       </c>
       <c r="G91" s="3">
-        <v>-31200</v>
+        <v>-50300</v>
       </c>
       <c r="H91" s="3">
-        <v>-69600</v>
+        <v>-91300</v>
       </c>
       <c r="I91" s="3">
-        <v>-51400</v>
+        <v>-72500</v>
       </c>
       <c r="J91" s="3">
-        <v>-93200</v>
+        <v>-114200</v>
       </c>
       <c r="K91" s="3">
         <v>-46200</v>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,393 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44191</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2086300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2739600</v>
+      </c>
+      <c r="F8" s="3">
         <v>3530700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3080600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2261600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2824700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3624400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>3198200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2194600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2582700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2971500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2608300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1076300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1439100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>3155700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>3179800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2050700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1682700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3227700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3219400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2137100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>3045400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>3361100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>3508800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2359600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2500300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>2743500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>985300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1380900</v>
+      </c>
+      <c r="F9" s="3">
         <v>1592300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1496200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1041600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1358700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1592500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1479300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>954200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1232100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1322500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1279200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>493000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>539800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2851900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3052600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1931000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2202100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3337700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>3494100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>2385600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1504000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1617900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1750800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1187400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1243900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>1362400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AE9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1101000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1358700</v>
+      </c>
+      <c r="F10" s="3">
         <v>1938400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1584400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>1220000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1466000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2031900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1718900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1240400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1350600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1649000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1329100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>583300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>899300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>303800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>127200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>119700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-519400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-110000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>-274700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>-248500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1541400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1743200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1758000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1172200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>1256400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>1381100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1081,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,8 +1166,14 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,91 +1255,103 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>95100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>325900</v>
+      </c>
+      <c r="F14" s="3">
         <v>11100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>467700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>6100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>8600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>7200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>4300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>55400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>38200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>23400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>22500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>407100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>28800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>4800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>131000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>77500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>57800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>10700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>14900</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>104700</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AA14" s="3">
+        <v>104700</v>
+      </c>
+      <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD14" s="3">
         <v>79600</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1388,8 +1433,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1467,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3014600</v>
+        <v>2189700</v>
       </c>
       <c r="E17" s="3">
+        <v>2900600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3015300</v>
+      </c>
+      <c r="G17" s="3">
         <v>3171400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2198200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2632300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2949600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2639700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1991700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2460200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2559500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2288400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1323100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1864200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2615700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2631200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1954700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1671400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2712100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2706700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2024000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2734100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2801500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3024900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2191600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2210700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>2489800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>516100</v>
+        <v>-103400</v>
       </c>
       <c r="E18" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>515400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-90800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>63400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>192400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>674800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>558500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>202900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>122500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>412000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>319900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-246800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-425100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>540000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>548600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>96000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>11300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>515600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>512700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>113100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>311300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>559600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>483900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>168000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>289600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>253700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,423 +1678,455 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6000</v>
+        <v>96400</v>
       </c>
       <c r="E20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-8500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-93400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>10400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>9100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>11100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>4500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>9100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>7800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-36900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-46100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>23400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>34200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>7300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-17200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>7200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>5800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>4300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>1900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>3500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>3100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-92900</v>
+      </c>
+      <c r="F21" s="3">
         <v>571600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-35400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>36700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>270100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>740400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>634100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>282100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>191500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>486700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>403600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-220700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-407900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>428400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>734000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>289400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>121800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>585700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>590900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>148700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>390100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>648300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>563900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>235400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>359500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>332900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>55200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>53000</v>
+      </c>
+      <c r="F22" s="3">
         <v>54100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>34700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>32500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>31700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>34000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>35900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>34900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>38000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>34300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>34100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>29300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>26800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>44600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>41600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>44300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>24100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>28300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>28300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>27000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>24400</v>
       </c>
       <c r="X22" s="3">
         <v>27000</v>
       </c>
       <c r="Y22" s="3">
+        <v>24400</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>27000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>27100</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>24200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>23700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>24300</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AE22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-62300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-216000</v>
+      </c>
+      <c r="F23" s="3">
         <v>455900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-134000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-62600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>171100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>641300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>531700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>179200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>89000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>386700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>293700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-312900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-497900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>500600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>530400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>85900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-11300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>494600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>486200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>68800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>294100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>538400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>461100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>145800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>269400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>232500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-52000</v>
+        <v>-4900</v>
       </c>
       <c r="E24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>42900</v>
+      </c>
+      <c r="G24" s="3">
         <v>-15600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-6700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>90700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>123500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>67600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>25200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>27300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>59000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>50400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-35200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>165500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>79000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-95000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>20700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-9000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>75100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>54300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>10400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>38100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>68000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>74300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>30900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>56100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>17300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AE24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2208,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>507900</v>
+        <v>-57400</v>
       </c>
       <c r="E26" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>413000</v>
+      </c>
+      <c r="G26" s="3">
         <v>-118400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-56000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>80400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>517800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>464100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>154000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>61700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>327700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>243200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-277700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-663400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>421600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>625400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>65300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>419500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>431900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>58500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>256100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>470400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>386800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>114900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>213300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>215200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>507900</v>
+        <v>-57400</v>
       </c>
       <c r="E27" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>413000</v>
+      </c>
+      <c r="G27" s="3">
         <v>-118400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-56000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>80400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>517800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>464100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>154000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>61700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>327700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>243200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-277700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-663400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>421600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>625400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>65300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>419500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>431900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>58500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>256100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>470400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>386800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>114900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>213300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>215200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,91 +2475,103 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
+        <v>94900</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>400</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>170300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>27800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>19600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>13500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-7900</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>179700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>43400</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>23600</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-16100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>131100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>44000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>75200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>101900</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>-3300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-560700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>-4100</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>49100</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AE29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2653,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,174 +2742,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6000</v>
+        <v>-96400</v>
       </c>
       <c r="E32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G32" s="3">
         <v>8500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>93400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-10400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-9100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-11100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-4500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-9100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-7800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>36900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>46100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-23400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-34200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-7300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>17200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-7200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-4300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="F33" s="3">
         <v>507900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-118400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-56000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>80800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>517800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>464100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>324200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>89500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>347200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>256700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-285600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-483800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>465000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>649000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>49200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>128800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>463500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>507100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>160400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>252800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-90300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>386100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>109900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>209200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>264300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +3009,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="F35" s="3">
         <v>507900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-118400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-56000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>80800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>517800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>464100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>324200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>89500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>347200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>256700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-285600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-483800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>465000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>649000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>49200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>128800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>463500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>507100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>160400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>252800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-90300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>386100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>109900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>209200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>264300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44191</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3229,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,99 +3262,107 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>806500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>814900</v>
+      </c>
+      <c r="F41" s="3">
         <v>571300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>552800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>528000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1275900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1333800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1360100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1274900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>815800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3254200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1877400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2145100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1369000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>584000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>507600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>606100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>445100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>535300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>352800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>467900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>680800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>563500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1546100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>672500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>603300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1227900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -3198,25 +3377,25 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>598800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>598800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>599400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>800000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>700000</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>8</v>
@@ -3230,11 +3409,11 @@
       <c r="T42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3257,340 +3436,370 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1216900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1612600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1566200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1837400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1251700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1468900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1497300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1789100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1139900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1298900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1413100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1609100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>937500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1309200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1643500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1978600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1307800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1468400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1777800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2199400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1431500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1408600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1430000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1851400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1155700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1241500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>1148800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2787000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2292800</v>
+      </c>
+      <c r="F44" s="3">
         <v>2591900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>2749900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>2341400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1418700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1287200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1464700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1216800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1061800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1076000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1434800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1402900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1293900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1565000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1890700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1665100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1432700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1866100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>2247900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1993800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1861400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1706600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1909600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1713000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1593400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>1424600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>403100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>432400</v>
+      </c>
+      <c r="F45" s="3">
         <v>514500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>548200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>490500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>424600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>482300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>355900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>333600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1010600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>942500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>958900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>1075700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1054800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>363200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>398300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>411800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1327300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>432900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>617800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>436900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>732500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>677700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>320300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>356500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>654000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>491900</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5213600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>5152700</v>
+      </c>
+      <c r="F46" s="3">
         <v>5244000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5688200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4611700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4588100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4600600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4969900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4564100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4785900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7285200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6680200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6261100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5027000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4155700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4775200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3990900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4673500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>4612100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5418000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4330100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>4683300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>4377800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5627400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3897700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>4092200</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>4293100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3672,174 +3881,192 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2292900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2314600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2225700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2201300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2235300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2288800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2352200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2391500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2443200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2450300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2432300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2319100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2311600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2227900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2207400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2135500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2146200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>915200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1041600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1035700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1018200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1011600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1014600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>921200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>919000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>897400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1822000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4614400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4621200</v>
+      </c>
+      <c r="F49" s="3">
         <v>4932900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>4878700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>5343700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>5394200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>5419800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>5434000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5455200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5455000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3056300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>3024600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3018400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3010600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3487800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3449200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3525100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3765400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3812100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3846900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>4000400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>3813300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>4049900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>3579400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>3631700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>4924300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>5003000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4148,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,91 +4237,103 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1923000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1901900</v>
+      </c>
+      <c r="F52" s="3">
         <v>1910700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1015900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1021000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1071100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1163700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1093700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1087800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1062900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>970500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>917300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>887900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>867800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>963400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>910500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>739800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1254500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>818500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>829900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>843000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>803000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>783700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>746900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>725400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1146500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>1461600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,91 +4415,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14043900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13990500</v>
+      </c>
+      <c r="F54" s="3">
         <v>14313300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>13784100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>13211800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>13342200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>13536300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>13889100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13550400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13754000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>13744300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12941300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12479000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>11133300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10814300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11270400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>10402000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10356800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10284300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>11130400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10191800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10311300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>9958500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10874900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>9173700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>9246300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>9739300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4541,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,506 +4574,544 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1282300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>936300</v>
+      </c>
+      <c r="F57" s="3">
         <v>906300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1022400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1022800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>563000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>559700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>534400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>534800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>463200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>412300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>450100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>348900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>407000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>457000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>550700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>588400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>580900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>645700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>732500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>675600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>583000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>761000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>554100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>502900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>425900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>620200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>987300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>935800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1812300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2524900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>828400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>836500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>606900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1011200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1009100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>12100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>14400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>20300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1229800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>60700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>489300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>72700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>669600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>683500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1576400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1323100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1531400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>741700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2239100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>1174900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>542400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>279700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1546900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1673700</v>
+      </c>
+      <c r="F59" s="3">
         <v>1827600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1798700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1612800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1915900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2057200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1838800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1527500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1735200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1784900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1620100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1346300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1387000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1444400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1364300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1286000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1416400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1233900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1199800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>996900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1024500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1247600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1028200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>753300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>867600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>885500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3816400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3545800</v>
+      </c>
+      <c r="F60" s="3">
         <v>4546200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5346000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3464000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3315400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3223900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3384400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3071400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2210500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2498000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2084500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1715500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3023900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1962100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2404300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1947100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2661600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2563000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3508700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2995600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3138800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2744100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3821400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>2431100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1835900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1785400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5722400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5711000</v>
+      </c>
+      <c r="F61" s="3">
         <v>4617400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3526100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4468400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4584300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4646400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4682800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4726200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5709100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5786600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5679400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5609800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2608300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2110500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2090900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2126800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2115900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>2135200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2150600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>2156600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2212600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2187800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>2144200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>2111600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>2051500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>2039200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AE61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1823000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1830000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1826400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1926900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1912200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2012700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2223500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2478600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2778200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2321600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2232100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2241200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2143800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2174100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2127500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2176400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1280800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1285400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1291600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1308500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1271800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1306700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>971900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>986600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>985900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>973800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5193,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5282,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,91 +5371,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11327100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11079800</v>
+      </c>
+      <c r="F66" s="3">
         <v>10993700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10698500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9859300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9811900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>9882900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10290600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10276300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>10697900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10606200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9996000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9566400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7775900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6246700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6622700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6250400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6058300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5983700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6950900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6460600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6623200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6238600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>6937500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>5529400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>4873200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>4798400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5497,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5582,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5671,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5760,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,91 +5849,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>57100</v>
+      </c>
+      <c r="F72" s="3">
         <v>385800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-120100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>188800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>443500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>608700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>586400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>317100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>189500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>300500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-45000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-298100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>7300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1182200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1406000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>931100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1179600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1258300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1147800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>825800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>846100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1023700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1297000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1077700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1892300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>2545500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +6027,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +6116,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,91 +6205,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2716800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2910700</v>
+      </c>
+      <c r="F76" s="3">
         <v>3319600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3085600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>3352500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>3530400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3653400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3598500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3274000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3056200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3138200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2945200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2912600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3357300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4567600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4647600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4151600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4298500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4300600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4179600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>3731100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>3688100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>3719900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>3937400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>3644300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4373100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>4940900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6383,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44191</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-214900</v>
+      </c>
+      <c r="F81" s="3">
         <v>507900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-118400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-56000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>80800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>517800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>464100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>324200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>89500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>347200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>256700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-285600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-483800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>465000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>649000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>49200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>128800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>463500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>507100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>160400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>252800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-90300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>386100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>109900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>209200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>264300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6603,99 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>70200</v>
+      </c>
+      <c r="F83" s="3">
         <v>61600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>63900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>66800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>67300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>65100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>66500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>68100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>64500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>65700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>75800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>63000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>63300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>-116800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>162000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>159200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>84600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>71400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>73900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>71100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>71500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>82900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>75700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>65500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>66400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>76100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AE83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6777,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6866,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6955,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +7044,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +7133,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>177700</v>
+      </c>
+      <c r="F89" s="3">
         <v>80500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-555600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-358300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>66900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>968500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-252100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>81000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>171200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1059200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>86000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>32900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1207100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-299300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-66200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>227600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1333700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-174200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>277100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-243200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>1468000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>11200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>205600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-210200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>1433400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7259,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-67900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-58300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-79600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-50300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-91300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-72500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-114200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-46200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-39900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-43300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-69200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-101900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-77700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-62300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-46300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-70400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-50700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-67100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-62500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-54400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-45200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-46200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-37400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-61500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-116600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AE91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7433,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7522,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-90600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>18800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-75100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-62200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-69500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-49700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-98900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>543500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>508800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2078900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>140700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-172200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-785200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-128100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-96500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-76800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-72100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>69800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-89100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-129200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-56000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-801300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>157500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-68300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-61600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,91 +7648,99 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-116500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-198100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-194100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-194100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-194000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-194800</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-192300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-192100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-191900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-191300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-186900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-186700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-186400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-188700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-171100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-202500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-201900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-201300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-182300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-181500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-181400</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-181700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-165400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-164900</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-172700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AD96" s="3">
         <v>-173600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AE96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7822,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7911,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,253 +8000,277 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-71900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>45200</v>
+      </c>
+      <c r="F100" s="3">
         <v>10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>670000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-261200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-11200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-897800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-185400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-174400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-472500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>147900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-185200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1562700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>931900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>288100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>123900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-153300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>146900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-344000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>406800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>931700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-283800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-346500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-875300</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-26900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-59000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-64000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-21000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-43100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>20600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-12200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>4100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-22500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-10500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>5100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>15500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>16600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>2700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-20000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>12200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>16900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-10600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>2200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-7600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AE101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>243300</v>
+      </c>
+      <c r="F102" s="3">
         <v>18700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>25300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-748000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-57900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-26600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>85000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>425400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-2423400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1368500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-283600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>778400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>814100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>77000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-98500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>62100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>17700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>179500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-113700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-216000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>119800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-980900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>873300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>68700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-622700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>488800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>60600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>VFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,393 +665,406 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44191</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3034200</v>
+      </c>
+      <c r="E8" s="3">
         <v>2086300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2739600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3530700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3080600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2261600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2824700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3624400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3198200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2194600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2582700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2971500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2608300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1076300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1439100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3155700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3179800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2050700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1682700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3227700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3219400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2137100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3045400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3361100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3508800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2359600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2500300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2743500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>3327700</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1479000</v>
+      </c>
+      <c r="E9" s="3">
         <v>985300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1380900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1592300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1496200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1041600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1358700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1592500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1479300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>954200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1232100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1322500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1279200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>493000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>539800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2851900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3052600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1931000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2202100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3337700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3494100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2385600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1504000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1617900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1750800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1187400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1243900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1362400</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1692600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1555200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1101000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1358700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1938400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1584400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1220000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1466000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2031900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1718900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1240400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1350600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1649000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1329100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>583300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>899300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>303800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>127200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>119700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-519400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-110000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-274700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-248500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1541400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1743200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1758000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1172200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1256400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>1381100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>1635100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1083,8 +1096,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1172,8 +1186,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1261,97 +1278,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E14" s="3">
         <v>95100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>325900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>11100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>467700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>38200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>23400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>407100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>131000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>77500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>57800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>10700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>14900</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>104700</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="3">
         <v>79600</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1439,8 +1462,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1469,186 +1495,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2677100</v>
+      </c>
+      <c r="E17" s="3">
         <v>2189700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3015300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3171400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2198200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2632300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2949600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2639700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1991700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2460200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2559500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2288400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1323100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1864200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2615700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2631200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1954700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1671400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2712100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2706700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2024000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2734100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2801500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3024900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2191600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2210700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2489800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2719500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>357100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-103400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-161000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>515400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-90800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>63400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>192400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>674800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>558500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>202900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>122500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>412000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>319900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-246800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-425100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>540000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>548600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>96000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>11300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>515600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>512700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>113100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>311300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>559600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>483900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>168000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>289600</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>253700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>608200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1680,453 +1713,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E20" s="3">
         <v>96400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-93400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>10400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-36900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-46100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>23400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>34200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-17200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>4300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>3500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>3100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>439900</v>
+      </c>
+      <c r="E21" s="3">
         <v>60000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-92900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>571600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-35400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>36700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>270100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>740400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>634100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>282100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>191500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>486700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>403600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-220700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-407900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>428400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>734000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>289400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>121800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>585700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>590900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>148700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>390100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>648300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>563900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>235400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>359500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>332900</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>677400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E22" s="3">
         <v>55200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>53000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>54100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>34700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>31700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>35900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>38000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>34300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>34100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>29300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>26800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>44600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>41600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>44300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>24100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>28300</v>
       </c>
       <c r="W22" s="3">
         <v>28300</v>
       </c>
       <c r="X22" s="3">
+        <v>28300</v>
+      </c>
+      <c r="Y22" s="3">
         <v>27000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>24400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>27000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>27100</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>24200</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>23700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>24300</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>24800</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>303800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-62300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-216000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>455900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-134000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-62600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>171100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>641300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>531700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>179200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>386700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>293700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-312900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-497900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>500600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>530400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>85900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>494600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>486200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>68800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>294100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>538400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>461100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>145800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>269400</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>232500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>584600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>754500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>42900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-15600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-6700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>90700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>123500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>25200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>59000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-35200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>165500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>79000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-95000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>75100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>54300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>38100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>68000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>74300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>30900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>56100</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>17300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>99400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2214,186 +2263,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-450700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-57400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-214900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>413000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-118400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-56000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>80400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>517800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>464100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>154000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>327700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>243200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-277700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-663400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>421600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>625400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>65300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>419500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>431900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>58500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>256100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>470400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>386800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>114900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>213300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>215200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-450700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-57400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-214900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>413000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-118400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-56000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>80400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>517800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>464100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>154000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>61700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>327700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>243200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-277700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-663400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>421600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>625400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>65300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>419500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>431900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>58500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>256100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>470400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>386800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>114900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>213300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>215200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>485200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2481,97 +2539,103 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>94900</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>400</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>170300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>27800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>19600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>13500</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>179700</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>43400</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>23600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-16100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>131100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>44000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>75200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>101900</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-560700</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>-600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>-5000</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AD29" s="3">
         <v>-4100</v>
       </c>
-      <c r="AD29" s="3">
+      <c r="AE29" s="3">
         <v>49100</v>
       </c>
-      <c r="AE29" s="3">
+      <c r="AF29" s="3">
         <v>13300</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2659,8 +2723,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2748,186 +2815,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-96400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>93400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-10400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>36900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>46100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-23400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-34200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>17200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-3500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-3100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-450700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-57400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-214900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>507900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-118400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-56000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>80800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>517800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>464100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>324200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>89500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>347200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>256700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-285600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-483800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>465000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>649000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>49200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>128800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>463500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>507100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>160400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>252800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-90300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>386100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>109900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>209200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>264300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3015,191 +3091,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-450700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-57400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-214900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>507900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-118400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-56000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>80800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>517800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>464100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>324200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>89500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>347200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>256700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-285600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-483800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>465000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>649000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>49200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>128800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>463500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>507100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>160400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>252800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-90300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>386100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>109900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>209200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>264300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44191</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3231,8 +3316,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3264,97 +3350,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>498900</v>
+      </c>
+      <c r="E41" s="3">
         <v>806500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>814900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>571300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>552800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>528000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1275900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1333800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1360100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1274900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>815800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3254200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1877400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2145100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1369000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>584000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>507600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>606100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>445100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>535300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>352800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>467900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>680800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>563500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1546100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>672500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>603300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1227900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>737800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3383,22 +3473,22 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>598800</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>598800</v>
       </c>
       <c r="N42" s="3">
+        <v>598800</v>
+      </c>
+      <c r="O42" s="3">
         <v>599400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>800000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>700000</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R42" s="3" t="s">
         <v>8</v>
@@ -3415,8 +3505,8 @@
       <c r="V42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3442,364 +3532,379 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1893100</v>
+      </c>
+      <c r="E43" s="3">
         <v>1216900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1612600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1566200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1837400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1251700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1468900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1497300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1789100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1139900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1298900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1413100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1609100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>937500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1309200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1643500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1978600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1307800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1468400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1777800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2199400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1431500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1408600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1430000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1851400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1155700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1241500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1148800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1785300</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2481100</v>
+      </c>
+      <c r="E44" s="3">
         <v>2787000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2292800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2591900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2749900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2341400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1418700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1287200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1464700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1216800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1061800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1076000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1434800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1402900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1293900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1565000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1890700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1665100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1432700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1866100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2247900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1993800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1861400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1706600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1909600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1713000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1593400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1424600</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2000000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>370500</v>
+      </c>
+      <c r="E45" s="3">
         <v>403100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>432400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>514500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>548200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>490500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>424600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>482300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>355900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>333600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1010600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>942500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>958900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1075700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1054800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>363200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>398300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>411800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1327300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>432900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>617800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>436900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>732500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>677700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>320300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>356500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>654000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>491900</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>295900</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5243600</v>
+      </c>
+      <c r="E46" s="3">
         <v>5213600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5152700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5244000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5688200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4611700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4588100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4600600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4969900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4564100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4785900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7285200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6680200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6261100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5027000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4155700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4775200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3990900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4673500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4612100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5418000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4330100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4683300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4377800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5627400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3897700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4092200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4293100</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>4819000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3887,186 +3992,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2224200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2292900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2314600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2225700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2201300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2235300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2288800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2352200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2391500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2443200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2450300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2432300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2319100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2311600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2227900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2207400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2135500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2146200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>915200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1041600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1035700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1018200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1011600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1014600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>921200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>919000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>897400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1822000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>949300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4592000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4614400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4621200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4932900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4878700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5343700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5394200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5419800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5434000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5455200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5455000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3056300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3024600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3018400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3010600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3487800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3449200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3525100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3765400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3812100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3846900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>4000400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>3813300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>4049900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>3579400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>3631700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>4924300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5003000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>3769300</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4154,8 +4268,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4243,97 +4360,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1082600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1923000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1901900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1910700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1015900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1021000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1071100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1163700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1093700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1087800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1062900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>970500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>917300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>887900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>867800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>963400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>910500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>739800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1254500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>818500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>829900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>843000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>803000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>783700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>746900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>725400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1146500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1461600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>905500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4421,97 +4544,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>13142400</v>
+      </c>
+      <c r="E54" s="3">
         <v>14043900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13990500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14313300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13784100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13211800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13342200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>13536300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13889100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13550400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13754000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13744300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12941300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12479000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11133300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10814300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11270400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10402000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10356800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10284300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11130400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10191800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>10311300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9958500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10874900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>9173700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>9246300</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>9739300</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>10443100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4543,8 +4672,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4576,542 +4706,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>992900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1282300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>936300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>906300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1022400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1022800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>563000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>559700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>534400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>534800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>463200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>412300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>450100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>348900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>407000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>457000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>550700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>588400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>580900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>645700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>732500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>675600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>583000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>761000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>554100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>502900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>425900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>620200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>565700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1024200</v>
+      </c>
+      <c r="E58" s="3">
         <v>987300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>935800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1812300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2524900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>828400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>836500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>606900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1011200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1009100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>20300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1229800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>60700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>489300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>72700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>669600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>683500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1576400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1323100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1531400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>741700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2239100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1174900</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>542400</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>279700</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1527700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1546900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1673700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1827600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1798700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1612800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1915900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2057200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1838800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1527500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1735200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1784900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1620100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1346300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1387000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1444400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1364300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1286000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1416400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1233900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1199800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>996900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1024500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1247600</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1028200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>753300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>867600</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>885500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>870100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3544800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3816400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3545800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4546200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5346000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3464000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3315400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3223900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3384400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3071400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2210500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2498000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2084500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1715500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3023900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1962100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2404300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1947100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2661600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2563000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3508700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2995600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3138800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2744100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3821400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2431100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1835900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1785400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2177200</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5656700</v>
+      </c>
+      <c r="E61" s="3">
         <v>5722400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5711000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4617400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3526100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4468400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4584300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4646400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4682800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4726200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5709100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5786600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5679400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5609800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2608300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2110500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2090900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2126800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2115900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2135200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2150600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2156600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2212600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2187800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2144200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2111600</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2051500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>2039200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>2347100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1730700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1788300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1823000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1830000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1826400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1926900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1912200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2012700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2223500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2478600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2778200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2321600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2232100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2241200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2143800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2174100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2127500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2176400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1280800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1285400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1291600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1308500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1271800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1306700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>971900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>986600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>985900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>973800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1046000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5199,8 +5348,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5288,8 +5440,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5377,97 +5532,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10932300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11327100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11079800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10993700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10698500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9859300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9811900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9882900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10290600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10276300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10697900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10606200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9996000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9566400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7775900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6246700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6622700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6250400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6058300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5983700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6950900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6460600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6623200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6238600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6937500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5529400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>4873200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>4798400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>5570300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5499,8 +5660,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5588,8 +5750,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5677,8 +5842,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5766,8 +5934,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5855,97 +6026,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-513500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-60700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>57100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>385800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-120100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>188800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>443500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>608700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>586400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>317100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>189500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>300500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-298100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1182200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1406000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>931100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1179600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1258300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1147800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>825800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>846100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1023700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1297000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1077700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1892300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>2545500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>2454300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6033,8 +6210,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6122,8 +6302,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6211,97 +6394,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2210000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2716800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2910700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3319600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3085600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3352500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3530400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3653400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3598500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3274000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3056200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3138200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2945200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2912600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3357300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4567600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4647600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4151600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4298500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4300600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4179600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3731100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3688100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3719900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3937400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3644300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4373100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4940900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>4872800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6389,191 +6578,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44191</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-450700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-57400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-214900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>507900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-118400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-56000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>80800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>517800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>464100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>324200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>89500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>347200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>256700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-285600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-483800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>465000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>649000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>49200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>128800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>463500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>507100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>160400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>252800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-90300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>386100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>109900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>209200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>264300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>498500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6605,97 +6803,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E83" s="3">
         <v>67100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>70200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>63900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>66800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>67300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>65100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>66500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>68100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>64500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>65700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>75800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>63000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>63300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>-116800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>162000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>159200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>84600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>71400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>73900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>71100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>71500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>82900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>75700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>65500</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>66400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>76100</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>68000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6783,8 +6985,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6872,8 +7077,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6961,8 +7169,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7050,8 +7261,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7139,97 +7353,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-182800</v>
+      </c>
+      <c r="E89" s="3">
         <v>163600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>177700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>80500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-555600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-358300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>66900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>968500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-252100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>171200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1059200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1207100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-299300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-66200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>227600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1333700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-174200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>277100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-243200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1468000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>11200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>205600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-210200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1433400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>30600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7261,97 +7481,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-84600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-55600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-67900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-79600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-50300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-91300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-72500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-114200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-39900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-101900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-77700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-62300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-46300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-70400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-50700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-67100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-62500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-54400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-45200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-46200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-37400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-61500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-116600</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-123600</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7663,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7528,97 +7755,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-90600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>18800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-75100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-62200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-69500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-98900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>543500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>508800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2078900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>140700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-172200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-785200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-128100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-96500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-76800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-72100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>69800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-89100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-129200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-56000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-801300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>157500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-68300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-61600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>50500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7650,8 +7883,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7659,88 +7893,91 @@
         <v>-116600</v>
       </c>
       <c r="E96" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-116500</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-198100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-194100</v>
       </c>
       <c r="H96" s="3">
         <v>-194100</v>
       </c>
       <c r="I96" s="3">
+        <v>-194100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-194000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-194800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-192300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-192100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-191900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-191300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-186900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-186700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-186400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-188700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-171100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-202500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-201900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-201300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-182300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-181500</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-181400</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-181700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-165400</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-164900</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-172700</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-173600</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-152800</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7828,8 +8065,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7917,8 +8157,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8006,271 +8249,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-71900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>45200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>670000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-261200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-897800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-185400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-174400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-472500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>147900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-185200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1562700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>931900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1034000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>288100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>123900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-153300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1240600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>146900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-344000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>406800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1664400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>931700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-283800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-346500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-875300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-13100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-9300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-26900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-59000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-64000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-21000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-43100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-12200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-22500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>15500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>16600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>12200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>16900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-10600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2200</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-7600</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-7200</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-307900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-8200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>243300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-748000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-57900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>85000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>425400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2423400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1368500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-283600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>778400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>814100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>77000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-98500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>62100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>17700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>179500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-113700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-216000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>119800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-980900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>873300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>68700</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-622700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>488800</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>60600</v>
       </c>
     </row>
